--- a/Document/DB Design/Data Dic V1-2020.xlsx
+++ b/Document/DB Design/Data Dic V1-2020.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Environment_Owner\Developments\C#\ASP.NET\Planing-กรมสรรพสามิต\Document\DB Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Environment_Owner\Developments\C#\ASP.NET\Planing-กรมสรรพสามิต\CSharpWebExcisePlaning\Document\DB Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Underlying (Master Data)" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4526" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4530" uniqueCount="794">
   <si>
     <t>Table Name:</t>
   </si>
@@ -1971,9 +1971,6 @@
   </si>
   <si>
     <t>ชื่อค่าฝึกอบรมและสัมนา</t>
-  </si>
-  <si>
-    <t>อัตราค่าตอบแทน (บาท)</t>
   </si>
   <si>
     <t>REPORT_CODE</t>
@@ -2618,6 +2615,15 @@
   </si>
   <si>
     <t>1 = เงินงบ, 2 = เงินนอกงบ</t>
+  </si>
+  <si>
+    <t>อัตราค่าตอบแทน (บาท) เอกชน</t>
+  </si>
+  <si>
+    <t>อัตราค่าตอบแทน (บาท) รัฐบาล</t>
+  </si>
+  <si>
+    <t>COMPENSATION_GOVERN_PRICE</t>
   </si>
 </sst>
 </file>
@@ -3210,14 +3216,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3237,14 +3249,14 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3258,10 +3270,10 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3287,12 +3299,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4852,10 +4858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F191"/>
+  <dimension ref="A3:F192"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4873,25 +4879,25 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
     </row>
     <row r="5" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -4997,37 +5003,37 @@
       <c r="A13" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="124"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="126"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="122" t="s">
+      <c r="B14" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="124"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="126"/>
     </row>
     <row r="15" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="127" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="127"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="129"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
@@ -5211,25 +5217,25 @@
       <c r="A29" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="120" t="s">
+      <c r="B29" s="123" t="s">
         <v>171</v>
       </c>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="120" t="s">
+      <c r="B30" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
     </row>
     <row r="31" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
@@ -5397,25 +5403,25 @@
       <c r="A43" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="120" t="s">
+      <c r="B43" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="123"/>
+      <c r="E43" s="123"/>
+      <c r="F43" s="123"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="120" t="s">
+      <c r="B44" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="120"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="120"/>
+      <c r="C44" s="123"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="123"/>
+      <c r="F44" s="123"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
@@ -5615,25 +5621,25 @@
       <c r="A59" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="120" t="s">
+      <c r="B59" s="123" t="s">
         <v>184</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="120"/>
-      <c r="E59" s="120"/>
-      <c r="F59" s="120"/>
+      <c r="C59" s="123"/>
+      <c r="D59" s="123"/>
+      <c r="E59" s="123"/>
+      <c r="F59" s="123"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="120" t="s">
+      <c r="B60" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="120"/>
-      <c r="D60" s="120"/>
-      <c r="E60" s="120"/>
-      <c r="F60" s="120"/>
+      <c r="C60" s="123"/>
+      <c r="D60" s="123"/>
+      <c r="E60" s="123"/>
+      <c r="F60" s="123"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
@@ -5787,25 +5793,25 @@
       <c r="A72" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="119" t="s">
+      <c r="B72" s="122" t="s">
         <v>471</v>
       </c>
-      <c r="C72" s="119"/>
-      <c r="D72" s="119"/>
-      <c r="E72" s="119"/>
-      <c r="F72" s="119"/>
+      <c r="C72" s="122"/>
+      <c r="D72" s="122"/>
+      <c r="E72" s="122"/>
+      <c r="F72" s="122"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="120" t="s">
+      <c r="B73" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="120"/>
-      <c r="D73" s="120"/>
-      <c r="E73" s="120"/>
-      <c r="F73" s="120"/>
+      <c r="C73" s="123"/>
+      <c r="D73" s="123"/>
+      <c r="E73" s="123"/>
+      <c r="F73" s="123"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="56" t="s">
@@ -5977,25 +5983,25 @@
       <c r="A86" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="119" t="s">
+      <c r="B86" s="122" t="s">
         <v>472</v>
       </c>
-      <c r="C86" s="119"/>
-      <c r="D86" s="119"/>
-      <c r="E86" s="119"/>
-      <c r="F86" s="119"/>
+      <c r="C86" s="122"/>
+      <c r="D86" s="122"/>
+      <c r="E86" s="122"/>
+      <c r="F86" s="122"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B87" s="120" t="s">
+      <c r="B87" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C87" s="120"/>
-      <c r="D87" s="120"/>
-      <c r="E87" s="120"/>
-      <c r="F87" s="120"/>
+      <c r="C87" s="123"/>
+      <c r="D87" s="123"/>
+      <c r="E87" s="123"/>
+      <c r="F87" s="123"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="57" t="s">
@@ -6133,25 +6139,25 @@
       <c r="A99" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="119" t="s">
+      <c r="B99" s="122" t="s">
         <v>480</v>
       </c>
-      <c r="C99" s="119"/>
-      <c r="D99" s="119"/>
-      <c r="E99" s="119"/>
-      <c r="F99" s="119"/>
+      <c r="C99" s="122"/>
+      <c r="D99" s="122"/>
+      <c r="E99" s="122"/>
+      <c r="F99" s="122"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="120" t="s">
+      <c r="B100" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="120"/>
-      <c r="D100" s="120"/>
-      <c r="E100" s="120"/>
-      <c r="F100" s="120"/>
+      <c r="C100" s="123"/>
+      <c r="D100" s="123"/>
+      <c r="E100" s="123"/>
+      <c r="F100" s="123"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="58" t="s">
@@ -6305,25 +6311,25 @@
       <c r="A112" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B112" s="119" t="s">
+      <c r="B112" s="122" t="s">
         <v>482</v>
       </c>
-      <c r="C112" s="119"/>
-      <c r="D112" s="119"/>
-      <c r="E112" s="119"/>
-      <c r="F112" s="119"/>
+      <c r="C112" s="122"/>
+      <c r="D112" s="122"/>
+      <c r="E112" s="122"/>
+      <c r="F112" s="122"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B113" s="120" t="s">
+      <c r="B113" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C113" s="120"/>
-      <c r="D113" s="120"/>
-      <c r="E113" s="120"/>
-      <c r="F113" s="120"/>
+      <c r="C113" s="123"/>
+      <c r="D113" s="123"/>
+      <c r="E113" s="123"/>
+      <c r="F113" s="123"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="58" t="s">
@@ -6431,25 +6437,25 @@
       <c r="A123" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B123" s="119" t="s">
+      <c r="B123" s="122" t="s">
         <v>494</v>
       </c>
-      <c r="C123" s="119"/>
-      <c r="D123" s="119"/>
-      <c r="E123" s="119"/>
-      <c r="F123" s="119"/>
+      <c r="C123" s="122"/>
+      <c r="D123" s="122"/>
+      <c r="E123" s="122"/>
+      <c r="F123" s="122"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="120" t="s">
+      <c r="B124" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="120"/>
-      <c r="D124" s="120"/>
-      <c r="E124" s="120"/>
-      <c r="F124" s="120"/>
+      <c r="C124" s="123"/>
+      <c r="D124" s="123"/>
+      <c r="E124" s="123"/>
+      <c r="F124" s="123"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="61" t="s">
@@ -6551,7 +6557,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>22</v>
@@ -6560,7 +6566,7 @@
         <v>17</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="6">
@@ -6589,25 +6595,25 @@
       <c r="A135" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B135" s="119" t="s">
+      <c r="B135" s="122" t="s">
         <v>587</v>
       </c>
-      <c r="C135" s="119"/>
-      <c r="D135" s="119"/>
-      <c r="E135" s="119"/>
-      <c r="F135" s="119"/>
+      <c r="C135" s="122"/>
+      <c r="D135" s="122"/>
+      <c r="E135" s="122"/>
+      <c r="F135" s="122"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B136" s="120" t="s">
+      <c r="B136" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C136" s="120"/>
-      <c r="D136" s="120"/>
-      <c r="E136" s="120"/>
-      <c r="F136" s="120"/>
+      <c r="C136" s="123"/>
+      <c r="D136" s="123"/>
+      <c r="E136" s="123"/>
+      <c r="F136" s="123"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="78" t="s">
@@ -6677,7 +6683,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>22</v>
@@ -6686,7 +6692,7 @@
         <v>17</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="6">
@@ -6697,25 +6703,25 @@
       <c r="A146" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B146" s="119" t="s">
+      <c r="B146" s="122" t="s">
         <v>508</v>
       </c>
-      <c r="C146" s="119"/>
-      <c r="D146" s="119"/>
-      <c r="E146" s="119"/>
-      <c r="F146" s="119"/>
+      <c r="C146" s="122"/>
+      <c r="D146" s="122"/>
+      <c r="E146" s="122"/>
+      <c r="F146" s="122"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B147" s="120" t="s">
+      <c r="B147" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C147" s="120"/>
-      <c r="D147" s="120"/>
-      <c r="E147" s="120"/>
-      <c r="F147" s="120"/>
+      <c r="C147" s="123"/>
+      <c r="D147" s="123"/>
+      <c r="E147" s="123"/>
+      <c r="F147" s="123"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="64" t="s">
@@ -6899,25 +6905,25 @@
       <c r="A161" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B161" s="119" t="s">
+      <c r="B161" s="122" t="s">
         <v>613</v>
       </c>
-      <c r="C161" s="119"/>
-      <c r="D161" s="119"/>
-      <c r="E161" s="119"/>
-      <c r="F161" s="119"/>
+      <c r="C161" s="122"/>
+      <c r="D161" s="122"/>
+      <c r="E161" s="122"/>
+      <c r="F161" s="122"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="B162" s="120" t="s">
+      <c r="B162" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C162" s="120"/>
-      <c r="D162" s="120"/>
-      <c r="E162" s="120"/>
-      <c r="F162" s="120"/>
+      <c r="C162" s="123"/>
+      <c r="D162" s="123"/>
+      <c r="E162" s="123"/>
+      <c r="F162" s="123"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="85" t="s">
@@ -6998,79 +7004,81 @@
         <v>17</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>616</v>
+        <v>791</v>
       </c>
       <c r="E167" s="7"/>
       <c r="F167" s="6"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>14</v>
+        <v>793</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>22</v>
+        <v>476</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>23</v>
+        <v>792</v>
       </c>
       <c r="E168" s="7"/>
-      <c r="F168" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="F168" s="6"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D169" s="6"/>
+      <c r="D169" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E169" s="7"/>
-      <c r="F169" s="6"/>
+      <c r="F169" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D170" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="D170" s="6"/>
       <c r="E170" s="7"/>
       <c r="F170" s="6"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D171" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="E171" s="7"/>
       <c r="F171" s="6"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>21</v>
@@ -7079,85 +7087,79 @@
       <c r="E172" s="7"/>
       <c r="F172" s="6"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="113" t="s">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D173" s="6"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="6"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B176" s="119" t="s">
-        <v>759</v>
-      </c>
-      <c r="C176" s="119"/>
-      <c r="D176" s="119"/>
-      <c r="E176" s="119"/>
-      <c r="F176" s="119"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B177" s="120" t="s">
-        <v>3</v>
-      </c>
-      <c r="C177" s="120"/>
-      <c r="D177" s="120"/>
-      <c r="E177" s="120"/>
-      <c r="F177" s="120"/>
+      <c r="B177" s="122" t="s">
+        <v>758</v>
+      </c>
+      <c r="C177" s="122"/>
+      <c r="D177" s="122"/>
+      <c r="E177" s="122"/>
+      <c r="F177" s="122"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B178" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" s="123"/>
+      <c r="D178" s="123"/>
+      <c r="E178" s="123"/>
+      <c r="F178" s="123"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B178" s="121" t="s">
-        <v>746</v>
-      </c>
-      <c r="C178" s="121"/>
-      <c r="D178" s="121"/>
-      <c r="E178" s="121"/>
-      <c r="F178" s="121"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="4" t="s">
+      <c r="B179" s="121" t="s">
+        <v>745</v>
+      </c>
+      <c r="C179" s="121"/>
+      <c r="D179" s="121"/>
+      <c r="E179" s="121"/>
+      <c r="F179" s="121"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B180" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C180" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="D180" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E179" s="2" t="s">
+      <c r="E180" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F179" s="2" t="s">
+      <c r="F180" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="5" t="s">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="E180" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F180" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A181" s="5" t="s">
-        <v>747</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>22</v>
@@ -7166,155 +7168,161 @@
         <v>17</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="E181" s="7"/>
-      <c r="F181" s="6"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>666</v>
+        <v>22</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D182" s="6"/>
+      <c r="D182" s="6" t="s">
+        <v>747</v>
+      </c>
       <c r="E182" s="7"/>
       <c r="F182" s="6"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D183" s="6"/>
       <c r="E183" s="7"/>
-      <c r="F183" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="F183" s="6"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>752</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D184" s="6"/>
       <c r="E184" s="7"/>
-      <c r="F184" s="8"/>
+      <c r="F184" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E185" s="7"/>
       <c r="F185" s="8"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E186" s="7"/>
       <c r="F186" s="8"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E187" s="7"/>
       <c r="F187" s="8"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>12</v>
+        <v>757</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>24</v>
+        <v>681</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D188" s="6"/>
+      <c r="D188" s="6" t="s">
+        <v>754</v>
+      </c>
       <c r="E188" s="7"/>
-      <c r="F188" s="6"/>
+      <c r="F188" s="8"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D189" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="D189" s="6"/>
       <c r="E189" s="7"/>
       <c r="F189" s="6"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D190" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="E190" s="7"/>
       <c r="F190" s="6"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>21</v>
@@ -7323,14 +7331,42 @@
       <c r="E191" s="7"/>
       <c r="F191" s="6"/>
     </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D192" s="6"/>
+      <c r="E192" s="7"/>
+      <c r="F192" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B178:F178"/>
+    <mergeCell ref="B179:F179"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="B163:F163"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B15:F15"/>
     <mergeCell ref="B87:F87"/>
     <mergeCell ref="B88:F88"/>
     <mergeCell ref="B86:F86"/>
@@ -7347,26 +7383,12 @@
     <mergeCell ref="B61:F61"/>
     <mergeCell ref="B59:F59"/>
     <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B123:F123"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="B163:F163"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B113:F113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7378,7 +7400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q851"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A308" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A273" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D804" sqref="D804"/>
     </sheetView>
   </sheetViews>
@@ -7397,32 +7419,32 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="132" t="s">
         <v>319</v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
@@ -7492,25 +7514,25 @@
       <c r="A11" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
     </row>
     <row r="13" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
@@ -7638,7 +7660,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>22</v>
@@ -7647,7 +7669,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
@@ -7828,13 +7850,13 @@
       <c r="A26" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="128" t="s">
+      <c r="B26" s="132" t="s">
         <v>442</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
@@ -7849,13 +7871,13 @@
       <c r="A27" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="120" t="s">
+      <c r="B27" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
@@ -8058,25 +8080,25 @@
       <c r="A36" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="128" t="s">
+      <c r="B36" s="132" t="s">
         <v>264</v>
       </c>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="132"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="120" t="s">
+      <c r="B37" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="120"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="120"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="123"/>
     </row>
     <row r="38" spans="1:15" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
@@ -8340,25 +8362,25 @@
       <c r="A49" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="128" t="s">
+      <c r="B49" s="132" t="s">
         <v>262</v>
       </c>
-      <c r="C49" s="128"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="128"/>
-      <c r="F49" s="128"/>
+      <c r="C49" s="132"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="132"/>
+      <c r="F49" s="132"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="120" t="s">
+      <c r="B50" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="120"/>
-      <c r="D50" s="120"/>
-      <c r="E50" s="120"/>
-      <c r="F50" s="120"/>
+      <c r="C50" s="123"/>
+      <c r="D50" s="123"/>
+      <c r="E50" s="123"/>
+      <c r="F50" s="123"/>
     </row>
     <row r="51" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
@@ -8513,7 +8535,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>22</v>
@@ -8522,7 +8544,7 @@
         <v>17</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="6">
@@ -8540,7 +8562,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>22</v>
@@ -8549,7 +8571,7 @@
         <v>21</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="6"/>
@@ -8726,13 +8748,13 @@
       <c r="A66" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="128" t="s">
+      <c r="B66" s="132" t="s">
         <v>443</v>
       </c>
-      <c r="C66" s="128"/>
-      <c r="D66" s="128"/>
-      <c r="E66" s="128"/>
-      <c r="F66" s="128"/>
+      <c r="C66" s="132"/>
+      <c r="D66" s="132"/>
+      <c r="E66" s="132"/>
+      <c r="F66" s="132"/>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
@@ -8747,13 +8769,13 @@
       <c r="A67" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="120" t="s">
+      <c r="B67" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="120"/>
-      <c r="D67" s="120"/>
-      <c r="E67" s="120"/>
-      <c r="F67" s="120"/>
+      <c r="C67" s="123"/>
+      <c r="D67" s="123"/>
+      <c r="E67" s="123"/>
+      <c r="F67" s="123"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
@@ -8956,13 +8978,13 @@
       <c r="A76" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="128" t="s">
+      <c r="B76" s="132" t="s">
         <v>210</v>
       </c>
-      <c r="C76" s="128"/>
-      <c r="D76" s="128"/>
-      <c r="E76" s="128"/>
-      <c r="F76" s="128"/>
+      <c r="C76" s="132"/>
+      <c r="D76" s="132"/>
+      <c r="E76" s="132"/>
+      <c r="F76" s="132"/>
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
@@ -8977,13 +8999,13 @@
       <c r="A77" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="120" t="s">
+      <c r="B77" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="120"/>
-      <c r="D77" s="120"/>
-      <c r="E77" s="120"/>
-      <c r="F77" s="120"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="123"/>
+      <c r="E77" s="123"/>
+      <c r="F77" s="123"/>
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
@@ -9173,7 +9195,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>22</v>
@@ -9182,7 +9204,7 @@
         <v>21</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="6"/>
@@ -9359,25 +9381,25 @@
       <c r="A93" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="128" t="s">
+      <c r="B93" s="132" t="s">
         <v>269</v>
       </c>
-      <c r="C93" s="128"/>
-      <c r="D93" s="128"/>
-      <c r="E93" s="128"/>
-      <c r="F93" s="128"/>
+      <c r="C93" s="132"/>
+      <c r="D93" s="132"/>
+      <c r="E93" s="132"/>
+      <c r="F93" s="132"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B94" s="120" t="s">
+      <c r="B94" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C94" s="120"/>
-      <c r="D94" s="120"/>
-      <c r="E94" s="120"/>
-      <c r="F94" s="120"/>
+      <c r="C94" s="123"/>
+      <c r="D94" s="123"/>
+      <c r="E94" s="123"/>
+      <c r="F94" s="123"/>
     </row>
     <row r="95" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
@@ -9477,25 +9499,25 @@
       <c r="A102" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="128" t="s">
+      <c r="B102" s="132" t="s">
         <v>159</v>
       </c>
-      <c r="C102" s="128"/>
-      <c r="D102" s="128"/>
-      <c r="E102" s="128"/>
-      <c r="F102" s="128"/>
+      <c r="C102" s="132"/>
+      <c r="D102" s="132"/>
+      <c r="E102" s="132"/>
+      <c r="F102" s="132"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B103" s="120" t="s">
+      <c r="B103" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C103" s="120"/>
-      <c r="D103" s="120"/>
-      <c r="E103" s="120"/>
-      <c r="F103" s="120"/>
+      <c r="C103" s="123"/>
+      <c r="D103" s="123"/>
+      <c r="E103" s="123"/>
+      <c r="F103" s="123"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
@@ -9611,7 +9633,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>22</v>
@@ -9620,7 +9642,7 @@
         <v>21</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="6"/>
@@ -9707,25 +9729,25 @@
       <c r="A118" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="128" t="s">
+      <c r="B118" s="132" t="s">
         <v>160</v>
       </c>
-      <c r="C118" s="128"/>
-      <c r="D118" s="128"/>
-      <c r="E118" s="128"/>
-      <c r="F118" s="128"/>
+      <c r="C118" s="132"/>
+      <c r="D118" s="132"/>
+      <c r="E118" s="132"/>
+      <c r="F118" s="132"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B119" s="120" t="s">
+      <c r="B119" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C119" s="120"/>
-      <c r="D119" s="120"/>
-      <c r="E119" s="120"/>
-      <c r="F119" s="120"/>
+      <c r="C119" s="123"/>
+      <c r="D119" s="123"/>
+      <c r="E119" s="123"/>
+      <c r="F119" s="123"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
@@ -9841,7 +9863,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>22</v>
@@ -9850,7 +9872,7 @@
         <v>21</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E127" s="7"/>
       <c r="F127" s="6"/>
@@ -9947,25 +9969,25 @@
       <c r="A135" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B135" s="128" t="s">
+      <c r="B135" s="132" t="s">
         <v>163</v>
       </c>
-      <c r="C135" s="128"/>
-      <c r="D135" s="128"/>
-      <c r="E135" s="128"/>
-      <c r="F135" s="128"/>
+      <c r="C135" s="132"/>
+      <c r="D135" s="132"/>
+      <c r="E135" s="132"/>
+      <c r="F135" s="132"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B136" s="120" t="s">
+      <c r="B136" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C136" s="120"/>
-      <c r="D136" s="120"/>
-      <c r="E136" s="120"/>
-      <c r="F136" s="120"/>
+      <c r="C136" s="123"/>
+      <c r="D136" s="123"/>
+      <c r="E136" s="123"/>
+      <c r="F136" s="123"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
@@ -10063,7 +10085,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>22</v>
@@ -10072,7 +10094,7 @@
         <v>21</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E143" s="7"/>
       <c r="F143" s="6"/>
@@ -10177,32 +10199,32 @@
       <c r="A151" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B151" s="128" t="s">
+      <c r="B151" s="132" t="s">
         <v>198</v>
       </c>
-      <c r="C151" s="128"/>
-      <c r="D151" s="128"/>
-      <c r="E151" s="128"/>
-      <c r="F151" s="128"/>
+      <c r="C151" s="132"/>
+      <c r="D151" s="132"/>
+      <c r="E151" s="132"/>
+      <c r="F151" s="132"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B152" s="120" t="s">
+      <c r="B152" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C152" s="120"/>
-      <c r="D152" s="120"/>
-      <c r="E152" s="120"/>
-      <c r="F152" s="120"/>
+      <c r="C152" s="123"/>
+      <c r="D152" s="123"/>
+      <c r="E152" s="123"/>
+      <c r="F152" s="123"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B153" s="121" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C153" s="121"/>
       <c r="D153" s="121"/>
@@ -10229,12 +10251,12 @@
         <v>9</v>
       </c>
       <c r="G154" s="100" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>22</v>
@@ -10252,7 +10274,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>20</v>
@@ -10266,7 +10288,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>22</v>
@@ -10275,7 +10297,7 @@
         <v>21</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E157" s="7"/>
       <c r="F157" s="6"/>
@@ -10432,14 +10454,14 @@
       <c r="N168" s="17"/>
     </row>
     <row r="169" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A169" s="131" t="s">
+      <c r="A169" s="133" t="s">
         <v>205</v>
       </c>
-      <c r="B169" s="131"/>
-      <c r="C169" s="131"/>
-      <c r="D169" s="131"/>
-      <c r="E169" s="131"/>
-      <c r="F169" s="131"/>
+      <c r="B169" s="133"/>
+      <c r="C169" s="133"/>
+      <c r="D169" s="133"/>
+      <c r="E169" s="133"/>
+      <c r="F169" s="133"/>
       <c r="H169" s="17"/>
       <c r="I169" s="17"/>
       <c r="J169" s="17"/>
@@ -10452,13 +10474,13 @@
       <c r="A170" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B170" s="128" t="s">
+      <c r="B170" s="132" t="s">
         <v>200</v>
       </c>
-      <c r="C170" s="128"/>
-      <c r="D170" s="128"/>
-      <c r="E170" s="128"/>
-      <c r="F170" s="128"/>
+      <c r="C170" s="132"/>
+      <c r="D170" s="132"/>
+      <c r="E170" s="132"/>
+      <c r="F170" s="132"/>
       <c r="H170" s="17"/>
       <c r="I170" s="17"/>
       <c r="J170" s="17"/>
@@ -10471,13 +10493,13 @@
       <c r="A171" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B171" s="120" t="s">
+      <c r="B171" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C171" s="120"/>
-      <c r="D171" s="120"/>
-      <c r="E171" s="120"/>
-      <c r="F171" s="120"/>
+      <c r="C171" s="123"/>
+      <c r="D171" s="123"/>
+      <c r="E171" s="123"/>
+      <c r="F171" s="123"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
@@ -10865,25 +10887,25 @@
       <c r="A196" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B196" s="128" t="s">
+      <c r="B196" s="132" t="s">
         <v>454</v>
       </c>
-      <c r="C196" s="128"/>
-      <c r="D196" s="128"/>
-      <c r="E196" s="128"/>
-      <c r="F196" s="128"/>
+      <c r="C196" s="132"/>
+      <c r="D196" s="132"/>
+      <c r="E196" s="132"/>
+      <c r="F196" s="132"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B197" s="120" t="s">
+      <c r="B197" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C197" s="120"/>
-      <c r="D197" s="120"/>
-      <c r="E197" s="120"/>
-      <c r="F197" s="120"/>
+      <c r="C197" s="123"/>
+      <c r="D197" s="123"/>
+      <c r="E197" s="123"/>
+      <c r="F197" s="123"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="15" t="s">
@@ -10971,25 +10993,25 @@
       <c r="A204" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B204" s="128" t="s">
+      <c r="B204" s="132" t="s">
         <v>202</v>
       </c>
-      <c r="C204" s="128"/>
-      <c r="D204" s="128"/>
-      <c r="E204" s="128"/>
-      <c r="F204" s="128"/>
+      <c r="C204" s="132"/>
+      <c r="D204" s="132"/>
+      <c r="E204" s="132"/>
+      <c r="F204" s="132"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B205" s="120" t="s">
+      <c r="B205" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C205" s="120"/>
-      <c r="D205" s="120"/>
-      <c r="E205" s="120"/>
-      <c r="F205" s="120"/>
+      <c r="C205" s="123"/>
+      <c r="D205" s="123"/>
+      <c r="E205" s="123"/>
+      <c r="F205" s="123"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="15" t="s">
@@ -11078,25 +11100,25 @@
       <c r="A212" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B212" s="128" t="s">
+      <c r="B212" s="132" t="s">
         <v>447</v>
       </c>
-      <c r="C212" s="128"/>
-      <c r="D212" s="128"/>
-      <c r="E212" s="128"/>
-      <c r="F212" s="128"/>
+      <c r="C212" s="132"/>
+      <c r="D212" s="132"/>
+      <c r="E212" s="132"/>
+      <c r="F212" s="132"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B213" s="120" t="s">
+      <c r="B213" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C213" s="120"/>
-      <c r="D213" s="120"/>
-      <c r="E213" s="120"/>
-      <c r="F213" s="120"/>
+      <c r="C213" s="123"/>
+      <c r="D213" s="123"/>
+      <c r="E213" s="123"/>
+      <c r="F213" s="123"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="15" t="s">
@@ -11183,25 +11205,25 @@
       <c r="A220" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B220" s="128" t="s">
+      <c r="B220" s="132" t="s">
         <v>311</v>
       </c>
-      <c r="C220" s="128"/>
-      <c r="D220" s="128"/>
-      <c r="E220" s="128"/>
-      <c r="F220" s="128"/>
+      <c r="C220" s="132"/>
+      <c r="D220" s="132"/>
+      <c r="E220" s="132"/>
+      <c r="F220" s="132"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B221" s="120" t="s">
+      <c r="B221" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C221" s="120"/>
-      <c r="D221" s="120"/>
-      <c r="E221" s="120"/>
-      <c r="F221" s="120"/>
+      <c r="C221" s="123"/>
+      <c r="D221" s="123"/>
+      <c r="E221" s="123"/>
+      <c r="F221" s="123"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="20" t="s">
@@ -11348,38 +11370,38 @@
       <c r="F232" s="9"/>
     </row>
     <row r="233" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A233" s="131" t="s">
+      <c r="A233" s="133" t="s">
         <v>318</v>
       </c>
-      <c r="B233" s="131"/>
-      <c r="C233" s="131"/>
-      <c r="D233" s="131"/>
-      <c r="E233" s="131"/>
-      <c r="F233" s="131"/>
+      <c r="B233" s="133"/>
+      <c r="C233" s="133"/>
+      <c r="D233" s="133"/>
+      <c r="E233" s="133"/>
+      <c r="F233" s="133"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B234" s="128" t="s">
+      <c r="B234" s="132" t="s">
         <v>323</v>
       </c>
-      <c r="C234" s="128"/>
-      <c r="D234" s="128"/>
-      <c r="E234" s="128"/>
-      <c r="F234" s="128"/>
+      <c r="C234" s="132"/>
+      <c r="D234" s="132"/>
+      <c r="E234" s="132"/>
+      <c r="F234" s="132"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B235" s="120" t="s">
+      <c r="B235" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C235" s="120"/>
-      <c r="D235" s="120"/>
-      <c r="E235" s="120"/>
-      <c r="F235" s="120"/>
+      <c r="C235" s="123"/>
+      <c r="D235" s="123"/>
+      <c r="E235" s="123"/>
+      <c r="F235" s="123"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="20" t="s">
@@ -11771,25 +11793,25 @@
       <c r="A261" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B261" s="128" t="s">
+      <c r="B261" s="132" t="s">
         <v>585</v>
       </c>
-      <c r="C261" s="128"/>
-      <c r="D261" s="128"/>
-      <c r="E261" s="128"/>
-      <c r="F261" s="128"/>
+      <c r="C261" s="132"/>
+      <c r="D261" s="132"/>
+      <c r="E261" s="132"/>
+      <c r="F261" s="132"/>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B262" s="120" t="s">
+      <c r="B262" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C262" s="120"/>
-      <c r="D262" s="120"/>
-      <c r="E262" s="120"/>
-      <c r="F262" s="120"/>
+      <c r="C262" s="123"/>
+      <c r="D262" s="123"/>
+      <c r="E262" s="123"/>
+      <c r="F262" s="123"/>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" s="74" t="s">
@@ -12035,25 +12057,25 @@
       <c r="A278" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B278" s="128" t="s">
+      <c r="B278" s="132" t="s">
         <v>347</v>
       </c>
-      <c r="C278" s="128"/>
-      <c r="D278" s="128"/>
-      <c r="E278" s="128"/>
-      <c r="F278" s="128"/>
+      <c r="C278" s="132"/>
+      <c r="D278" s="132"/>
+      <c r="E278" s="132"/>
+      <c r="F278" s="132"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B279" s="120" t="s">
+      <c r="B279" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C279" s="120"/>
-      <c r="D279" s="120"/>
-      <c r="E279" s="120"/>
-      <c r="F279" s="120"/>
+      <c r="C279" s="123"/>
+      <c r="D279" s="123"/>
+      <c r="E279" s="123"/>
+      <c r="F279" s="123"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="20" t="s">
@@ -12489,25 +12511,25 @@
       <c r="A307" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B307" s="128" t="s">
+      <c r="B307" s="132" t="s">
         <v>383</v>
       </c>
-      <c r="C307" s="128"/>
-      <c r="D307" s="128"/>
-      <c r="E307" s="128"/>
-      <c r="F307" s="128"/>
+      <c r="C307" s="132"/>
+      <c r="D307" s="132"/>
+      <c r="E307" s="132"/>
+      <c r="F307" s="132"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B308" s="120" t="s">
+      <c r="B308" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C308" s="120"/>
-      <c r="D308" s="120"/>
-      <c r="E308" s="120"/>
-      <c r="F308" s="120"/>
+      <c r="C308" s="123"/>
+      <c r="D308" s="123"/>
+      <c r="E308" s="123"/>
+      <c r="F308" s="123"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="24" t="s">
@@ -12878,25 +12900,25 @@
       <c r="A332" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B332" s="128" t="s">
+      <c r="B332" s="132" t="s">
         <v>529</v>
       </c>
-      <c r="C332" s="128"/>
-      <c r="D332" s="128"/>
-      <c r="E332" s="128"/>
-      <c r="F332" s="128"/>
+      <c r="C332" s="132"/>
+      <c r="D332" s="132"/>
+      <c r="E332" s="132"/>
+      <c r="F332" s="132"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B333" s="120" t="s">
+      <c r="B333" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C333" s="120"/>
-      <c r="D333" s="120"/>
-      <c r="E333" s="120"/>
-      <c r="F333" s="120"/>
+      <c r="C333" s="123"/>
+      <c r="D333" s="123"/>
+      <c r="E333" s="123"/>
+      <c r="F333" s="123"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="65" t="s">
@@ -13506,13 +13528,13 @@
       <c r="A365" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B365" s="128" t="s">
+      <c r="B365" s="132" t="s">
         <v>545</v>
       </c>
-      <c r="C365" s="128"/>
-      <c r="D365" s="128"/>
-      <c r="E365" s="128"/>
-      <c r="F365" s="128"/>
+      <c r="C365" s="132"/>
+      <c r="D365" s="132"/>
+      <c r="E365" s="132"/>
+      <c r="F365" s="132"/>
       <c r="G365" s="17"/>
       <c r="H365" s="17"/>
       <c r="I365" s="17"/>
@@ -13526,13 +13548,13 @@
       <c r="A366" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B366" s="120" t="s">
+      <c r="B366" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C366" s="120"/>
-      <c r="D366" s="120"/>
-      <c r="E366" s="120"/>
-      <c r="F366" s="120"/>
+      <c r="C366" s="123"/>
+      <c r="D366" s="123"/>
+      <c r="E366" s="123"/>
+      <c r="F366" s="123"/>
       <c r="G366" s="17"/>
       <c r="H366" s="17"/>
       <c r="I366" s="17"/>
@@ -13666,7 +13688,7 @@
     </row>
     <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B372" s="39" t="s">
         <v>256</v>
@@ -13675,7 +13697,7 @@
         <v>21</v>
       </c>
       <c r="D372" s="39" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E372" s="40"/>
       <c r="F372" s="39"/>
@@ -14145,14 +14167,14 @@
       <c r="N393" s="17"/>
     </row>
     <row r="394" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A394" s="131" t="s">
+      <c r="A394" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="B394" s="131"/>
-      <c r="C394" s="131"/>
-      <c r="D394" s="131"/>
-      <c r="E394" s="131"/>
-      <c r="F394" s="131"/>
+      <c r="B394" s="133"/>
+      <c r="C394" s="133"/>
+      <c r="D394" s="133"/>
+      <c r="E394" s="133"/>
+      <c r="F394" s="133"/>
       <c r="G394" s="17"/>
       <c r="H394" s="17"/>
       <c r="I394" s="17"/>
@@ -14166,13 +14188,13 @@
       <c r="A395" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B395" s="128" t="s">
+      <c r="B395" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="C395" s="128"/>
-      <c r="D395" s="128"/>
-      <c r="E395" s="128"/>
-      <c r="F395" s="128"/>
+      <c r="C395" s="132"/>
+      <c r="D395" s="132"/>
+      <c r="E395" s="132"/>
+      <c r="F395" s="132"/>
       <c r="G395" s="17"/>
       <c r="H395" s="17"/>
       <c r="I395" s="17"/>
@@ -14186,13 +14208,13 @@
       <c r="A396" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B396" s="120" t="s">
+      <c r="B396" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="C396" s="120"/>
-      <c r="D396" s="120"/>
-      <c r="E396" s="120"/>
-      <c r="F396" s="120"/>
+      <c r="C396" s="123"/>
+      <c r="D396" s="123"/>
+      <c r="E396" s="123"/>
+      <c r="F396" s="123"/>
       <c r="G396" s="17"/>
       <c r="H396" s="17"/>
       <c r="I396" s="17"/>
@@ -14287,7 +14309,7 @@
         <v>21</v>
       </c>
       <c r="D400" s="32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E400" s="33"/>
       <c r="F400" s="32"/>
@@ -14542,7 +14564,7 @@
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B411" s="6" t="s">
         <v>271</v>
@@ -14551,7 +14573,7 @@
         <v>17</v>
       </c>
       <c r="D411" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E411" s="7"/>
       <c r="F411" s="6"/>
@@ -14566,7 +14588,7 @@
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B412" s="6" t="s">
         <v>271</v>
@@ -14575,7 +14597,7 @@
         <v>17</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E412" s="7"/>
       <c r="F412" s="6"/>
@@ -14892,13 +14914,13 @@
       <c r="A427" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B427" s="128" t="s">
+      <c r="B427" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="C427" s="128"/>
-      <c r="D427" s="128"/>
-      <c r="E427" s="128"/>
-      <c r="F427" s="128"/>
+      <c r="C427" s="132"/>
+      <c r="D427" s="132"/>
+      <c r="E427" s="132"/>
+      <c r="F427" s="132"/>
       <c r="G427" s="17"/>
       <c r="H427" s="17"/>
       <c r="I427" s="17"/>
@@ -14912,13 +14934,13 @@
       <c r="A428" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B428" s="120" t="s">
+      <c r="B428" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="C428" s="120"/>
-      <c r="D428" s="120"/>
-      <c r="E428" s="120"/>
-      <c r="F428" s="120"/>
+      <c r="C428" s="123"/>
+      <c r="D428" s="123"/>
+      <c r="E428" s="123"/>
+      <c r="F428" s="123"/>
       <c r="G428" s="17"/>
       <c r="H428" s="17"/>
       <c r="I428" s="17"/>
@@ -15536,7 +15558,7 @@
       <c r="E453" s="7"/>
       <c r="F453" s="6"/>
       <c r="G453" s="98" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H453" s="17"/>
       <c r="I453" s="17"/>
@@ -15594,13 +15616,13 @@
       <c r="A457" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B457" s="132" t="s">
-        <v>644</v>
-      </c>
-      <c r="C457" s="133"/>
-      <c r="D457" s="133"/>
-      <c r="E457" s="133"/>
-      <c r="F457" s="134"/>
+      <c r="B457" s="134" t="s">
+        <v>643</v>
+      </c>
+      <c r="C457" s="135"/>
+      <c r="D457" s="135"/>
+      <c r="E457" s="135"/>
+      <c r="F457" s="136"/>
       <c r="G457" s="17"/>
       <c r="H457" s="17"/>
       <c r="I457" s="17"/>
@@ -15614,13 +15636,13 @@
       <c r="A458" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B458" s="120" t="s">
+      <c r="B458" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C458" s="120"/>
-      <c r="D458" s="120"/>
-      <c r="E458" s="120"/>
-      <c r="F458" s="120"/>
+      <c r="C458" s="123"/>
+      <c r="D458" s="123"/>
+      <c r="E458" s="123"/>
+      <c r="F458" s="123"/>
       <c r="G458" s="17"/>
       <c r="H458" s="17"/>
       <c r="I458" s="17"/>
@@ -15635,7 +15657,7 @@
         <v>4</v>
       </c>
       <c r="B459" s="121" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C459" s="121"/>
       <c r="D459" s="121"/>
@@ -15772,7 +15794,7 @@
       </c>
       <c r="F464" s="26"/>
       <c r="G464" s="97" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H464" s="17"/>
       <c r="I464" s="17"/>
@@ -15784,7 +15806,7 @@
     </row>
     <row r="465" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B465" s="6" t="s">
         <v>16</v>
@@ -15793,14 +15815,14 @@
         <v>17</v>
       </c>
       <c r="D465" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E465" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F465" s="6"/>
       <c r="G465" s="97" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H465" s="17"/>
       <c r="I465" s="17"/>
@@ -15890,7 +15912,7 @@
     </row>
     <row r="469" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="93" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B469" s="93" t="s">
         <v>16</v>
@@ -15916,7 +15938,7 @@
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A470" s="93" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B470" s="93" t="s">
         <v>16</v>
@@ -15942,7 +15964,7 @@
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A471" s="93" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B471" s="93" t="s">
         <v>16</v>
@@ -16109,14 +16131,14 @@
       <c r="N481" s="17"/>
     </row>
     <row r="482" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A482" s="131" t="s">
+      <c r="A482" s="133" t="s">
         <v>376</v>
       </c>
-      <c r="B482" s="131"/>
-      <c r="C482" s="131"/>
-      <c r="D482" s="131"/>
-      <c r="E482" s="131"/>
-      <c r="F482" s="131"/>
+      <c r="B482" s="133"/>
+      <c r="C482" s="133"/>
+      <c r="D482" s="133"/>
+      <c r="E482" s="133"/>
+      <c r="F482" s="133"/>
       <c r="G482" s="17"/>
       <c r="H482" s="17"/>
       <c r="I482" s="17"/>
@@ -16130,13 +16152,13 @@
       <c r="A483" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B483" s="128" t="s">
+      <c r="B483" s="132" t="s">
         <v>387</v>
       </c>
-      <c r="C483" s="128"/>
-      <c r="D483" s="128"/>
-      <c r="E483" s="128"/>
-      <c r="F483" s="128"/>
+      <c r="C483" s="132"/>
+      <c r="D483" s="132"/>
+      <c r="E483" s="132"/>
+      <c r="F483" s="132"/>
       <c r="G483" s="17"/>
       <c r="H483" s="17"/>
       <c r="I483" s="17"/>
@@ -16150,13 +16172,13 @@
       <c r="A484" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B484" s="120" t="s">
+      <c r="B484" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="C484" s="120"/>
-      <c r="D484" s="120"/>
-      <c r="E484" s="120"/>
-      <c r="F484" s="120"/>
+      <c r="C484" s="123"/>
+      <c r="D484" s="123"/>
+      <c r="E484" s="123"/>
+      <c r="F484" s="123"/>
       <c r="G484" s="17"/>
       <c r="H484" s="17"/>
       <c r="I484" s="17"/>
@@ -16375,7 +16397,7 @@
         <v>17</v>
       </c>
       <c r="D493" s="86" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E493" s="87"/>
       <c r="F493" s="86"/>
@@ -16399,7 +16421,7 @@
         <v>17</v>
       </c>
       <c r="D494" s="86" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E494" s="87"/>
       <c r="F494" s="86"/>
@@ -16447,7 +16469,7 @@
         <v>17</v>
       </c>
       <c r="D496" s="88" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E496" s="89"/>
       <c r="F496" s="88"/>
@@ -16471,7 +16493,7 @@
         <v>17</v>
       </c>
       <c r="D497" s="88" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E497" s="89"/>
       <c r="F497" s="88"/>
@@ -16510,7 +16532,7 @@
     </row>
     <row r="499" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A499" s="45" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B499" s="45" t="s">
         <v>331</v>
@@ -16534,7 +16556,7 @@
     </row>
     <row r="500" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A500" s="45" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B500" s="45" t="s">
         <v>331</v>
@@ -16770,13 +16792,13 @@
       <c r="A511" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B511" s="128" t="s">
+      <c r="B511" s="132" t="s">
         <v>386</v>
       </c>
-      <c r="C511" s="128"/>
-      <c r="D511" s="128"/>
-      <c r="E511" s="128"/>
-      <c r="F511" s="128"/>
+      <c r="C511" s="132"/>
+      <c r="D511" s="132"/>
+      <c r="E511" s="132"/>
+      <c r="F511" s="132"/>
       <c r="G511" s="17"/>
       <c r="H511" s="17"/>
       <c r="I511" s="17"/>
@@ -16790,13 +16812,13 @@
       <c r="A512" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B512" s="120" t="s">
+      <c r="B512" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="C512" s="120"/>
-      <c r="D512" s="120"/>
-      <c r="E512" s="120"/>
-      <c r="F512" s="120"/>
+      <c r="C512" s="123"/>
+      <c r="D512" s="123"/>
+      <c r="E512" s="123"/>
+      <c r="F512" s="123"/>
       <c r="G512" s="17"/>
       <c r="H512" s="17"/>
       <c r="I512" s="17"/>
@@ -16908,7 +16930,7 @@
     </row>
     <row r="517" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B517" s="6" t="s">
         <v>228</v>
@@ -16917,14 +16939,14 @@
         <v>21</v>
       </c>
       <c r="D517" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E517" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F517" s="6"/>
       <c r="G517" s="112" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H517" s="17"/>
       <c r="I517" s="17"/>
@@ -17277,7 +17299,7 @@
         <v>17</v>
       </c>
       <c r="D531" s="86" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E531" s="87"/>
       <c r="F531" s="86"/>
@@ -17301,7 +17323,7 @@
         <v>17</v>
       </c>
       <c r="D532" s="86" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E532" s="87"/>
       <c r="F532" s="86"/>
@@ -17349,7 +17371,7 @@
         <v>17</v>
       </c>
       <c r="D534" s="88" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E534" s="89"/>
       <c r="F534" s="88"/>
@@ -17373,7 +17395,7 @@
         <v>17</v>
       </c>
       <c r="D535" s="88" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E535" s="89"/>
       <c r="F535" s="88"/>
@@ -17412,7 +17434,7 @@
     </row>
     <row r="537" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A537" s="45" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B537" s="45" t="s">
         <v>331</v>
@@ -17436,7 +17458,7 @@
     </row>
     <row r="538" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A538" s="45" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B538" s="45" t="s">
         <v>331</v>
@@ -17860,7 +17882,7 @@
     </row>
     <row r="556" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A556" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B556" s="6" t="s">
         <v>24</v>
@@ -17882,7 +17904,7 @@
     </row>
     <row r="557" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A557" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B557" s="6" t="s">
         <v>16</v>
@@ -17970,13 +17992,13 @@
       <c r="A562" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B562" s="128" t="s">
+      <c r="B562" s="132" t="s">
         <v>394</v>
       </c>
-      <c r="C562" s="128"/>
-      <c r="D562" s="128"/>
-      <c r="E562" s="128"/>
-      <c r="F562" s="128"/>
+      <c r="C562" s="132"/>
+      <c r="D562" s="132"/>
+      <c r="E562" s="132"/>
+      <c r="F562" s="132"/>
       <c r="H562" s="17"/>
       <c r="I562" s="17"/>
       <c r="J562" s="17"/>
@@ -17989,13 +18011,13 @@
       <c r="A563" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B563" s="120" t="s">
+      <c r="B563" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="C563" s="120"/>
-      <c r="D563" s="120"/>
-      <c r="E563" s="120"/>
-      <c r="F563" s="120"/>
+      <c r="C563" s="123"/>
+      <c r="D563" s="123"/>
+      <c r="E563" s="123"/>
+      <c r="F563" s="123"/>
       <c r="G563" s="44"/>
       <c r="H563" s="44"/>
       <c r="I563" s="44"/>
@@ -18079,7 +18101,7 @@
     </row>
     <row r="567" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A567" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B567" s="6" t="s">
         <v>228</v>
@@ -18088,7 +18110,7 @@
         <v>21</v>
       </c>
       <c r="D567" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E567" s="7" t="s">
         <v>27</v>
@@ -18422,7 +18444,7 @@
         <v>17</v>
       </c>
       <c r="D583" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E583" s="7"/>
       <c r="F583" s="6"/>
@@ -18490,14 +18512,14 @@
       </c>
       <c r="E587" s="7"/>
       <c r="F587" s="6"/>
-      <c r="G587" s="135" t="s">
-        <v>661</v>
-      </c>
-      <c r="H587" s="136"/>
-      <c r="I587" s="136"/>
-      <c r="J587" s="136"/>
-      <c r="K587" s="136"/>
-      <c r="L587" s="136"/>
+      <c r="G587" s="130" t="s">
+        <v>660</v>
+      </c>
+      <c r="H587" s="131"/>
+      <c r="I587" s="131"/>
+      <c r="J587" s="131"/>
+      <c r="K587" s="131"/>
+      <c r="L587" s="131"/>
     </row>
     <row r="588" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A588" s="5" t="s">
@@ -18517,7 +18539,7 @@
     </row>
     <row r="589" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A589" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B589" s="6" t="s">
         <v>256</v>
@@ -18526,7 +18548,7 @@
         <v>21</v>
       </c>
       <c r="D589" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E589" s="7"/>
       <c r="F589" s="6"/>
@@ -18607,32 +18629,32 @@
       <c r="A597" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B597" s="128" t="s">
+      <c r="B597" s="132" t="s">
         <v>398</v>
       </c>
-      <c r="C597" s="128"/>
-      <c r="D597" s="128"/>
-      <c r="E597" s="128"/>
-      <c r="F597" s="128"/>
+      <c r="C597" s="132"/>
+      <c r="D597" s="132"/>
+      <c r="E597" s="132"/>
+      <c r="F597" s="132"/>
     </row>
     <row r="598" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A598" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B598" s="120" t="s">
+      <c r="B598" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="C598" s="120"/>
-      <c r="D598" s="120"/>
-      <c r="E598" s="120"/>
-      <c r="F598" s="120"/>
+      <c r="C598" s="123"/>
+      <c r="D598" s="123"/>
+      <c r="E598" s="123"/>
+      <c r="F598" s="123"/>
     </row>
     <row r="599" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A599" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B599" s="121" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C599" s="121"/>
       <c r="D599" s="121"/>
@@ -18897,7 +18919,7 @@
     </row>
     <row r="614" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="39" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B614" s="39" t="s">
         <v>141</v>
@@ -18906,7 +18928,7 @@
         <v>21</v>
       </c>
       <c r="D614" s="39" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E614" s="40"/>
       <c r="F614" s="39"/>
@@ -18939,7 +18961,7 @@
         <v>17</v>
       </c>
       <c r="D616" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E616" s="7"/>
       <c r="F616" s="8"/>
@@ -19050,32 +19072,32 @@
       <c r="A627" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B627" s="128" t="s">
-        <v>732</v>
-      </c>
-      <c r="C627" s="128"/>
-      <c r="D627" s="128"/>
-      <c r="E627" s="128"/>
-      <c r="F627" s="128"/>
+      <c r="B627" s="132" t="s">
+        <v>731</v>
+      </c>
+      <c r="C627" s="132"/>
+      <c r="D627" s="132"/>
+      <c r="E627" s="132"/>
+      <c r="F627" s="132"/>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="B628" s="120" t="s">
+      <c r="B628" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="C628" s="120"/>
-      <c r="D628" s="120"/>
-      <c r="E628" s="120"/>
-      <c r="F628" s="120"/>
+      <c r="C628" s="123"/>
+      <c r="D628" s="123"/>
+      <c r="E628" s="123"/>
+      <c r="F628" s="123"/>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" s="110" t="s">
         <v>4</v>
       </c>
       <c r="B629" s="121" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C629" s="121"/>
       <c r="D629" s="121"/>
@@ -19104,14 +19126,14 @@
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B631" s="6" t="s">
         <v>228</v>
       </c>
       <c r="C631" s="7"/>
       <c r="D631" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E631" s="7" t="s">
         <v>18</v>
@@ -19337,7 +19359,7 @@
         <v>17</v>
       </c>
       <c r="D644" s="86" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E644" s="87"/>
       <c r="F644" s="86"/>
@@ -19353,7 +19375,7 @@
         <v>17</v>
       </c>
       <c r="D645" s="86" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E645" s="87"/>
       <c r="F645" s="86"/>
@@ -19385,7 +19407,7 @@
         <v>17</v>
       </c>
       <c r="D647" s="88" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E647" s="89"/>
       <c r="F647" s="88"/>
@@ -19401,7 +19423,7 @@
         <v>17</v>
       </c>
       <c r="D648" s="88" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E648" s="89"/>
       <c r="F648" s="88"/>
@@ -19424,7 +19446,7 @@
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" s="45" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B650" s="45" t="s">
         <v>331</v>
@@ -19440,7 +19462,7 @@
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" s="45" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B651" s="45" t="s">
         <v>331</v>
@@ -19528,7 +19550,7 @@
     </row>
     <row r="657" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A657" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B657" s="6" t="s">
         <v>24</v>
@@ -19550,7 +19572,7 @@
     </row>
     <row r="658" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A658" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B658" s="6" t="s">
         <v>16</v>
@@ -19602,32 +19624,32 @@
       <c r="A664" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B664" s="128" t="s">
-        <v>735</v>
-      </c>
-      <c r="C664" s="128"/>
-      <c r="D664" s="128"/>
-      <c r="E664" s="128"/>
-      <c r="F664" s="128"/>
+      <c r="B664" s="132" t="s">
+        <v>734</v>
+      </c>
+      <c r="C664" s="132"/>
+      <c r="D664" s="132"/>
+      <c r="E664" s="132"/>
+      <c r="F664" s="132"/>
     </row>
     <row r="665" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A665" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="B665" s="120" t="s">
+      <c r="B665" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="C665" s="120"/>
-      <c r="D665" s="120"/>
-      <c r="E665" s="120"/>
-      <c r="F665" s="120"/>
+      <c r="C665" s="123"/>
+      <c r="D665" s="123"/>
+      <c r="E665" s="123"/>
+      <c r="F665" s="123"/>
     </row>
     <row r="666" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A666" s="110" t="s">
         <v>4</v>
       </c>
       <c r="B666" s="121" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C666" s="121"/>
       <c r="D666" s="121"/>
@@ -19656,7 +19678,7 @@
     </row>
     <row r="668" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A668" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B668" s="6" t="s">
         <v>228</v>
@@ -19665,7 +19687,7 @@
         <v>17</v>
       </c>
       <c r="D668" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E668" s="7" t="s">
         <v>18</v>
@@ -19907,7 +19929,7 @@
         <v>17</v>
       </c>
       <c r="D682" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E682" s="7"/>
       <c r="F682" s="6"/>
@@ -19939,7 +19961,7 @@
         <v>17</v>
       </c>
       <c r="D684" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E684" s="7"/>
       <c r="F684" s="6"/>
@@ -19994,7 +20016,7 @@
     </row>
     <row r="688" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A688" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B688" s="6" t="s">
         <v>256</v>
@@ -20003,7 +20025,7 @@
         <v>21</v>
       </c>
       <c r="D688" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E688" s="7"/>
       <c r="F688" s="6"/>
@@ -20081,38 +20103,38 @@
       <c r="F693" s="6"/>
     </row>
     <row r="714" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A714" s="131" t="s">
+      <c r="A714" s="133" t="s">
         <v>427</v>
       </c>
-      <c r="B714" s="131"/>
-      <c r="C714" s="131"/>
-      <c r="D714" s="131"/>
-      <c r="E714" s="131"/>
-      <c r="F714" s="131"/>
+      <c r="B714" s="133"/>
+      <c r="C714" s="133"/>
+      <c r="D714" s="133"/>
+      <c r="E714" s="133"/>
+      <c r="F714" s="133"/>
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A715" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B715" s="128" t="s">
+      <c r="B715" s="132" t="s">
         <v>412</v>
       </c>
-      <c r="C715" s="128"/>
-      <c r="D715" s="128"/>
-      <c r="E715" s="128"/>
-      <c r="F715" s="128"/>
+      <c r="C715" s="132"/>
+      <c r="D715" s="132"/>
+      <c r="E715" s="132"/>
+      <c r="F715" s="132"/>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A716" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B716" s="120" t="s">
+      <c r="B716" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="C716" s="120"/>
-      <c r="D716" s="120"/>
-      <c r="E716" s="120"/>
-      <c r="F716" s="120"/>
+      <c r="C716" s="123"/>
+      <c r="D716" s="123"/>
+      <c r="E716" s="123"/>
+      <c r="F716" s="123"/>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A717" s="48" t="s">
@@ -20157,7 +20179,7 @@
         <v>17</v>
       </c>
       <c r="D719" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E719" s="7" t="s">
         <v>18</v>
@@ -20362,16 +20384,16 @@
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A731" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="B731" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="B731" s="6" t="s">
+      <c r="C731" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D731" s="6" t="s">
         <v>666</v>
-      </c>
-      <c r="C731" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D731" s="6" t="s">
-        <v>667</v>
       </c>
       <c r="E731" s="7"/>
       <c r="F731" s="8"/>
@@ -20596,25 +20618,25 @@
       <c r="A749" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B749" s="128" t="s">
+      <c r="B749" s="132" t="s">
         <v>544</v>
       </c>
-      <c r="C749" s="128"/>
-      <c r="D749" s="128"/>
-      <c r="E749" s="128"/>
-      <c r="F749" s="128"/>
+      <c r="C749" s="132"/>
+      <c r="D749" s="132"/>
+      <c r="E749" s="132"/>
+      <c r="F749" s="132"/>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A750" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B750" s="120" t="s">
+      <c r="B750" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="C750" s="120"/>
-      <c r="D750" s="120"/>
-      <c r="E750" s="120"/>
-      <c r="F750" s="120"/>
+      <c r="C750" s="123"/>
+      <c r="D750" s="123"/>
+      <c r="E750" s="123"/>
+      <c r="F750" s="123"/>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A751" s="71" t="s">
@@ -20763,14 +20785,14 @@
         <v>17</v>
       </c>
       <c r="D759" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E759" s="7"/>
       <c r="F759" s="8"/>
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A760" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B760" s="6" t="s">
         <v>19</v>
@@ -20779,7 +20801,7 @@
         <v>21</v>
       </c>
       <c r="D760" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E760" s="7"/>
       <c r="F760" s="8"/>
@@ -20944,25 +20966,25 @@
       <c r="A775" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B775" s="128" t="s">
+      <c r="B775" s="132" t="s">
         <v>416</v>
       </c>
-      <c r="C775" s="128"/>
-      <c r="D775" s="128"/>
-      <c r="E775" s="128"/>
-      <c r="F775" s="128"/>
+      <c r="C775" s="132"/>
+      <c r="D775" s="132"/>
+      <c r="E775" s="132"/>
+      <c r="F775" s="132"/>
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A776" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B776" s="120" t="s">
+      <c r="B776" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="C776" s="120"/>
-      <c r="D776" s="120"/>
-      <c r="E776" s="120"/>
-      <c r="F776" s="120"/>
+      <c r="C776" s="123"/>
+      <c r="D776" s="123"/>
+      <c r="E776" s="123"/>
+      <c r="F776" s="123"/>
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A777" s="48" t="s">
@@ -21100,7 +21122,7 @@
     </row>
     <row r="785" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A785" s="28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B785" s="28" t="s">
         <v>414</v>
@@ -21109,14 +21131,14 @@
         <v>21</v>
       </c>
       <c r="D785" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E785" s="29"/>
       <c r="F785" s="28"/>
     </row>
     <row r="786" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A786" s="28" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B786" s="28" t="s">
         <v>16</v>
@@ -21125,14 +21147,14 @@
         <v>21</v>
       </c>
       <c r="D786" s="28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E786" s="29"/>
       <c r="F786" s="28"/>
     </row>
     <row r="787" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A787" s="28" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B787" s="28" t="s">
         <v>19</v>
@@ -21141,14 +21163,14 @@
         <v>21</v>
       </c>
       <c r="D787" s="28" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E787" s="29"/>
       <c r="F787" s="28"/>
     </row>
     <row r="788" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A788" s="106" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B788" s="106" t="s">
         <v>22</v>
@@ -21157,7 +21179,7 @@
         <v>17</v>
       </c>
       <c r="D788" s="106" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E788" s="107"/>
       <c r="F788" s="106">
@@ -21182,16 +21204,16 @@
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A790" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="B790" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="C790" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D790" s="6" t="s">
         <v>673</v>
-      </c>
-      <c r="B790" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="C790" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D790" s="6" t="s">
-        <v>674</v>
       </c>
       <c r="E790" s="7"/>
       <c r="F790" s="8"/>
@@ -21217,7 +21239,7 @@
         <v>96</v>
       </c>
       <c r="B792" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C792" s="7" t="s">
         <v>21</v>
@@ -21320,25 +21342,25 @@
       <c r="A801" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B801" s="128" t="s">
+      <c r="B801" s="132" t="s">
         <v>565</v>
       </c>
-      <c r="C801" s="128"/>
-      <c r="D801" s="128"/>
-      <c r="E801" s="128"/>
-      <c r="F801" s="128"/>
+      <c r="C801" s="132"/>
+      <c r="D801" s="132"/>
+      <c r="E801" s="132"/>
+      <c r="F801" s="132"/>
     </row>
     <row r="802" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A802" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B802" s="120" t="s">
+      <c r="B802" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="C802" s="120"/>
-      <c r="D802" s="120"/>
-      <c r="E802" s="120"/>
-      <c r="F802" s="120"/>
+      <c r="C802" s="123"/>
+      <c r="D802" s="123"/>
+      <c r="E802" s="123"/>
+      <c r="F802" s="123"/>
     </row>
     <row r="803" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A803" s="67" t="s">
@@ -21407,19 +21429,19 @@
         <v>95</v>
       </c>
       <c r="F806" s="6"/>
-      <c r="G806" s="129" t="s">
-        <v>668</v>
-      </c>
-      <c r="H806" s="130"/>
-      <c r="I806" s="130"/>
-      <c r="J806" s="130"/>
-      <c r="K806" s="130"/>
-      <c r="L806" s="130"/>
-      <c r="M806" s="130"/>
-      <c r="N806" s="130"/>
-      <c r="O806" s="130"/>
-      <c r="P806" s="130"/>
-      <c r="Q806" s="130"/>
+      <c r="G806" s="137" t="s">
+        <v>667</v>
+      </c>
+      <c r="H806" s="138"/>
+      <c r="I806" s="138"/>
+      <c r="J806" s="138"/>
+      <c r="K806" s="138"/>
+      <c r="L806" s="138"/>
+      <c r="M806" s="138"/>
+      <c r="N806" s="138"/>
+      <c r="O806" s="138"/>
+      <c r="P806" s="138"/>
+      <c r="Q806" s="138"/>
     </row>
     <row r="807" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A807" s="5" t="s">
@@ -21432,7 +21454,7 @@
         <v>17</v>
       </c>
       <c r="D807" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E807" s="7" t="s">
         <v>18</v>
@@ -21450,7 +21472,7 @@
         <v>17</v>
       </c>
       <c r="D808" s="102" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E808" s="104"/>
       <c r="F808" s="105"/>
@@ -21466,14 +21488,14 @@
         <v>17</v>
       </c>
       <c r="D809" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E809" s="7"/>
       <c r="F809" s="6"/>
     </row>
     <row r="810" spans="1:17" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A810" s="28" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B810" s="28" t="s">
         <v>19</v>
@@ -21482,7 +21504,7 @@
         <v>21</v>
       </c>
       <c r="D810" s="28" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E810" s="29"/>
       <c r="F810" s="28"/>
@@ -21592,7 +21614,7 @@
         <v>96</v>
       </c>
       <c r="B817" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C817" s="7" t="s">
         <v>21</v>
@@ -21635,32 +21657,32 @@
       <c r="A823" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B823" s="128" t="s">
-        <v>766</v>
-      </c>
-      <c r="C823" s="128"/>
-      <c r="D823" s="128"/>
-      <c r="E823" s="128"/>
-      <c r="F823" s="128"/>
+      <c r="B823" s="132" t="s">
+        <v>765</v>
+      </c>
+      <c r="C823" s="132"/>
+      <c r="D823" s="132"/>
+      <c r="E823" s="132"/>
+      <c r="F823" s="132"/>
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A824" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B824" s="120" t="s">
+      <c r="B824" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="C824" s="120"/>
-      <c r="D824" s="120"/>
-      <c r="E824" s="120"/>
-      <c r="F824" s="120"/>
+      <c r="C824" s="123"/>
+      <c r="D824" s="123"/>
+      <c r="E824" s="123"/>
+      <c r="F824" s="123"/>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A825" s="116" t="s">
         <v>4</v>
       </c>
       <c r="B825" s="121" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C825" s="121"/>
       <c r="D825" s="121"/>
@@ -21716,7 +21738,7 @@
         <v>17</v>
       </c>
       <c r="D828" s="39" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E828" s="40"/>
       <c r="F828" s="118"/>
@@ -21732,7 +21754,7 @@
         <v>17</v>
       </c>
       <c r="D829" s="39" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E829" s="40"/>
       <c r="F829" s="118"/>
@@ -21748,14 +21770,14 @@
         <v>17</v>
       </c>
       <c r="D830" s="39" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E830" s="40"/>
       <c r="F830" s="118"/>
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A831" s="28" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B831" s="28" t="s">
         <v>16</v>
@@ -21773,7 +21795,7 @@
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A832" s="28" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B832" s="28" t="s">
         <v>16</v>
@@ -21791,7 +21813,7 @@
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A833" s="28" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B833" s="28" t="s">
         <v>16</v>
@@ -21809,7 +21831,7 @@
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A834" s="28" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B834" s="28" t="s">
         <v>16</v>
@@ -21827,7 +21849,7 @@
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A835" s="28" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B835" s="28" t="s">
         <v>16</v>
@@ -21845,7 +21867,7 @@
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A836" s="28" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B836" s="28" t="s">
         <v>16</v>
@@ -21863,7 +21885,7 @@
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A837" s="28" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B837" s="28" t="s">
         <v>16</v>
@@ -21880,166 +21902,166 @@
       <c r="F837" s="28"/>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A838" s="145" t="s">
+      <c r="A838" s="119" t="s">
+        <v>774</v>
+      </c>
+      <c r="B838" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C838" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="D838" s="119" t="s">
+        <v>168</v>
+      </c>
+      <c r="E838" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="F838" s="119"/>
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A839" s="119" t="s">
         <v>775</v>
       </c>
-      <c r="B838" s="145" t="s">
-        <v>16</v>
-      </c>
-      <c r="C838" s="146" t="s">
-        <v>21</v>
-      </c>
-      <c r="D838" s="145" t="s">
-        <v>168</v>
-      </c>
-      <c r="E838" s="146" t="s">
+      <c r="B839" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C839" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="D839" s="119" t="s">
+        <v>169</v>
+      </c>
+      <c r="E839" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="F838" s="145"/>
-    </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A839" s="145" t="s">
+      <c r="F839" s="119"/>
+    </row>
+    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A840" s="119" t="s">
         <v>776</v>
       </c>
-      <c r="B839" s="145" t="s">
-        <v>16</v>
-      </c>
-      <c r="C839" s="146" t="s">
-        <v>21</v>
-      </c>
-      <c r="D839" s="145" t="s">
-        <v>169</v>
-      </c>
-      <c r="E839" s="146" t="s">
+      <c r="B840" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C840" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="D840" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="E840" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="F839" s="145"/>
-    </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A840" s="145" t="s">
+      <c r="F840" s="119"/>
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A841" s="119" t="s">
         <v>777</v>
       </c>
-      <c r="B840" s="145" t="s">
-        <v>16</v>
-      </c>
-      <c r="C840" s="146" t="s">
-        <v>21</v>
-      </c>
-      <c r="D840" s="145" t="s">
-        <v>170</v>
-      </c>
-      <c r="E840" s="146" t="s">
+      <c r="B841" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C841" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="D841" s="119" t="s">
+        <v>156</v>
+      </c>
+      <c r="E841" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="F840" s="145"/>
-    </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A841" s="145" t="s">
+      <c r="F841" s="119"/>
+    </row>
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A842" s="119" t="s">
         <v>778</v>
       </c>
-      <c r="B841" s="145" t="s">
-        <v>16</v>
-      </c>
-      <c r="C841" s="146" t="s">
-        <v>17</v>
-      </c>
-      <c r="D841" s="145" t="s">
-        <v>156</v>
-      </c>
-      <c r="E841" s="146" t="s">
+      <c r="B842" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C842" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="D842" s="119" t="s">
+        <v>267</v>
+      </c>
+      <c r="E842" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="F841" s="145"/>
-    </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A842" s="145" t="s">
+      <c r="F842" s="119"/>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A843" s="119" t="s">
         <v>779</v>
       </c>
-      <c r="B842" s="145" t="s">
-        <v>16</v>
-      </c>
-      <c r="C842" s="146" t="s">
-        <v>17</v>
-      </c>
-      <c r="D842" s="145" t="s">
-        <v>267</v>
-      </c>
-      <c r="E842" s="146" t="s">
+      <c r="B843" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C843" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="D843" s="119" t="s">
+        <v>215</v>
+      </c>
+      <c r="E843" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="F842" s="145"/>
-    </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A843" s="145" t="s">
+      <c r="F843" s="119"/>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A844" s="119" t="s">
         <v>780</v>
       </c>
-      <c r="B843" s="145" t="s">
-        <v>16</v>
-      </c>
-      <c r="C843" s="146" t="s">
-        <v>17</v>
-      </c>
-      <c r="D843" s="145" t="s">
-        <v>215</v>
-      </c>
-      <c r="E843" s="146" t="s">
+      <c r="B844" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C844" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="D844" s="119" t="s">
+        <v>539</v>
+      </c>
+      <c r="E844" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="F843" s="145"/>
-    </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A844" s="145" t="s">
-        <v>781</v>
-      </c>
-      <c r="B844" s="145" t="s">
-        <v>16</v>
-      </c>
-      <c r="C844" s="146" t="s">
-        <v>21</v>
-      </c>
-      <c r="D844" s="145" t="s">
-        <v>539</v>
-      </c>
-      <c r="E844" s="146" t="s">
-        <v>27</v>
-      </c>
-      <c r="F844" s="145"/>
+      <c r="F844" s="119"/>
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A845" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="B845" s="39" t="s">
         <v>782</v>
       </c>
-      <c r="B845" s="39" t="s">
+      <c r="C845" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D845" s="39" t="s">
         <v>783</v>
-      </c>
-      <c r="C845" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="D845" s="39" t="s">
-        <v>784</v>
       </c>
       <c r="E845" s="40"/>
       <c r="F845" s="39"/>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A846" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B846" s="39" t="s">
+        <v>665</v>
+      </c>
+      <c r="C846" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D846" s="39" t="s">
         <v>789</v>
-      </c>
-      <c r="B846" s="39" t="s">
-        <v>666</v>
-      </c>
-      <c r="C846" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D846" s="39" t="s">
-        <v>790</v>
       </c>
       <c r="E846" s="40"/>
       <c r="F846" s="39"/>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A847" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B847" s="39" t="s">
         <v>19</v>
@@ -22048,7 +22070,7 @@
         <v>21</v>
       </c>
       <c r="D847" s="39" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E847" s="40"/>
       <c r="F847" s="118"/>
@@ -22115,6 +22137,100 @@
     </row>
   </sheetData>
   <mergeCells count="118">
+    <mergeCell ref="B823:F823"/>
+    <mergeCell ref="B824:F824"/>
+    <mergeCell ref="B825:F825"/>
+    <mergeCell ref="G806:Q806"/>
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="B396:F396"/>
+    <mergeCell ref="A394:F394"/>
+    <mergeCell ref="B395:F395"/>
+    <mergeCell ref="B170:F170"/>
+    <mergeCell ref="B205:F205"/>
+    <mergeCell ref="B280:F280"/>
+    <mergeCell ref="B236:F236"/>
+    <mergeCell ref="B365:F365"/>
+    <mergeCell ref="B366:F366"/>
+    <mergeCell ref="B367:F367"/>
+    <mergeCell ref="B307:F307"/>
+    <mergeCell ref="B308:F308"/>
+    <mergeCell ref="B309:F309"/>
+    <mergeCell ref="B213:F213"/>
+    <mergeCell ref="B214:F214"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="B776:F776"/>
+    <mergeCell ref="B564:F564"/>
+    <mergeCell ref="B397:F397"/>
+    <mergeCell ref="B597:F597"/>
+    <mergeCell ref="B598:F598"/>
+    <mergeCell ref="B599:F599"/>
+    <mergeCell ref="B427:F427"/>
+    <mergeCell ref="B483:F483"/>
+    <mergeCell ref="B484:F484"/>
+    <mergeCell ref="B485:F485"/>
+    <mergeCell ref="B627:F627"/>
+    <mergeCell ref="B628:F628"/>
+    <mergeCell ref="B629:F629"/>
+    <mergeCell ref="B664:F664"/>
+    <mergeCell ref="B665:F665"/>
+    <mergeCell ref="B666:F666"/>
+    <mergeCell ref="B715:F715"/>
+    <mergeCell ref="B716:F716"/>
+    <mergeCell ref="B717:F717"/>
+    <mergeCell ref="B775:F775"/>
+    <mergeCell ref="B332:F332"/>
+    <mergeCell ref="A233:F233"/>
+    <mergeCell ref="B279:F279"/>
+    <mergeCell ref="A169:F169"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="B333:F333"/>
+    <mergeCell ref="B334:F334"/>
+    <mergeCell ref="B196:F196"/>
+    <mergeCell ref="B197:F197"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="B204:F204"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B801:F801"/>
+    <mergeCell ref="B750:F750"/>
+    <mergeCell ref="B751:F751"/>
+    <mergeCell ref="A482:F482"/>
+    <mergeCell ref="B428:F428"/>
+    <mergeCell ref="B562:F562"/>
+    <mergeCell ref="B563:F563"/>
+    <mergeCell ref="B511:F511"/>
+    <mergeCell ref="B512:F512"/>
+    <mergeCell ref="B513:F513"/>
+    <mergeCell ref="B261:F261"/>
+    <mergeCell ref="B262:F262"/>
+    <mergeCell ref="B263:F263"/>
+    <mergeCell ref="B457:F457"/>
+    <mergeCell ref="B458:F458"/>
+    <mergeCell ref="B459:F459"/>
+    <mergeCell ref="B777:F777"/>
+    <mergeCell ref="A714:F714"/>
     <mergeCell ref="G587:L587"/>
     <mergeCell ref="B802:F802"/>
     <mergeCell ref="B803:F803"/>
@@ -22139,100 +22255,6 @@
     <mergeCell ref="B119:F119"/>
     <mergeCell ref="B120:F120"/>
     <mergeCell ref="B749:F749"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="B204:F204"/>
-    <mergeCell ref="B171:F171"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="B278:F278"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B801:F801"/>
-    <mergeCell ref="B750:F750"/>
-    <mergeCell ref="B751:F751"/>
-    <mergeCell ref="A482:F482"/>
-    <mergeCell ref="B428:F428"/>
-    <mergeCell ref="B562:F562"/>
-    <mergeCell ref="B563:F563"/>
-    <mergeCell ref="B511:F511"/>
-    <mergeCell ref="B512:F512"/>
-    <mergeCell ref="B513:F513"/>
-    <mergeCell ref="B261:F261"/>
-    <mergeCell ref="B262:F262"/>
-    <mergeCell ref="B263:F263"/>
-    <mergeCell ref="B457:F457"/>
-    <mergeCell ref="B458:F458"/>
-    <mergeCell ref="B459:F459"/>
-    <mergeCell ref="B777:F777"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="A714:F714"/>
-    <mergeCell ref="B715:F715"/>
-    <mergeCell ref="B716:F716"/>
-    <mergeCell ref="B717:F717"/>
-    <mergeCell ref="B775:F775"/>
-    <mergeCell ref="B332:F332"/>
-    <mergeCell ref="A233:F233"/>
-    <mergeCell ref="B279:F279"/>
-    <mergeCell ref="A169:F169"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="B333:F333"/>
-    <mergeCell ref="B334:F334"/>
-    <mergeCell ref="B776:F776"/>
-    <mergeCell ref="B564:F564"/>
-    <mergeCell ref="B397:F397"/>
-    <mergeCell ref="B597:F597"/>
-    <mergeCell ref="B598:F598"/>
-    <mergeCell ref="B599:F599"/>
-    <mergeCell ref="B427:F427"/>
-    <mergeCell ref="B483:F483"/>
-    <mergeCell ref="B484:F484"/>
-    <mergeCell ref="B485:F485"/>
-    <mergeCell ref="B627:F627"/>
-    <mergeCell ref="B628:F628"/>
-    <mergeCell ref="B629:F629"/>
-    <mergeCell ref="B664:F664"/>
-    <mergeCell ref="B665:F665"/>
-    <mergeCell ref="B666:F666"/>
-    <mergeCell ref="B196:F196"/>
-    <mergeCell ref="B197:F197"/>
-    <mergeCell ref="B823:F823"/>
-    <mergeCell ref="B824:F824"/>
-    <mergeCell ref="B825:F825"/>
-    <mergeCell ref="G806:Q806"/>
-    <mergeCell ref="B151:F151"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="B396:F396"/>
-    <mergeCell ref="A394:F394"/>
-    <mergeCell ref="B395:F395"/>
-    <mergeCell ref="B170:F170"/>
-    <mergeCell ref="B205:F205"/>
-    <mergeCell ref="B280:F280"/>
-    <mergeCell ref="B236:F236"/>
-    <mergeCell ref="B365:F365"/>
-    <mergeCell ref="B366:F366"/>
-    <mergeCell ref="B367:F367"/>
-    <mergeCell ref="B307:F307"/>
-    <mergeCell ref="B308:F308"/>
-    <mergeCell ref="B309:F309"/>
-    <mergeCell ref="B213:F213"/>
-    <mergeCell ref="B214:F214"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="B222:F222"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22263,44 +22285,44 @@
       <c r="A3" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="120" t="s">
-        <v>680</v>
-      </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
+      <c r="B3" s="123" t="s">
+        <v>679</v>
+      </c>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="108" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="121" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C5" s="121"/>
       <c r="D5" s="121"/>
       <c r="E5" s="121"/>
       <c r="F5" s="121"/>
-      <c r="G5" s="139" t="s">
-        <v>701</v>
-      </c>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
+      <c r="G5" s="141" t="s">
+        <v>700</v>
+      </c>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -22324,7 +22346,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>22</v>
@@ -22342,7 +22364,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>20</v>
@@ -22356,16 +22378,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="6"/>
@@ -22374,44 +22396,44 @@
       <c r="A12" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="120" t="s">
-        <v>709</v>
-      </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
+      <c r="B12" s="123" t="s">
+        <v>708</v>
+      </c>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="108" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="121" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C14" s="121"/>
       <c r="D14" s="121"/>
       <c r="E14" s="121"/>
       <c r="F14" s="121"/>
-      <c r="G14" s="139" t="s">
-        <v>701</v>
-      </c>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="140"/>
+      <c r="G14" s="141" t="s">
+        <v>700</v>
+      </c>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -22435,7 +22457,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>22</v>
@@ -22453,7 +22475,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>20</v>
@@ -22469,32 +22491,32 @@
       <c r="A20" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="120" t="s">
-        <v>717</v>
-      </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
+      <c r="B20" s="123" t="s">
+        <v>716</v>
+      </c>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="108" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="121" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C22" s="121"/>
       <c r="D22" s="121"/>
@@ -22523,7 +22545,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>16</v>
@@ -22541,7 +22563,7 @@
     </row>
     <row r="25" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>22</v>
@@ -22550,7 +22572,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>27</v>
@@ -22559,7 +22581,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>24</v>
@@ -22568,14 +22590,14 @@
         <v>17</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>24</v>
@@ -22584,7 +22606,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="6"/>
@@ -22680,7 +22702,7 @@
         <v>21</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="6"/>
@@ -22696,7 +22718,7 @@
         <v>21</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="6"/>
@@ -22705,32 +22727,32 @@
       <c r="A37" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="120" t="s">
-        <v>764</v>
-      </c>
-      <c r="C37" s="120"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="120"/>
+      <c r="B37" s="123" t="s">
+        <v>763</v>
+      </c>
+      <c r="C37" s="123"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="123"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="120" t="s">
+      <c r="B38" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="120"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="120"/>
-      <c r="F38" s="120"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="115" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="121" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C39" s="121"/>
       <c r="D39" s="121"/>
@@ -22759,7 +22781,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>16</v>
@@ -22777,7 +22799,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>22</v>
@@ -22786,7 +22808,7 @@
         <v>17</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>18</v>
@@ -22795,16 +22817,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="C43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>682</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>683</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="6"/>
@@ -22820,7 +22842,7 @@
         <v>21</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="6"/>
@@ -22829,32 +22851,32 @@
       <c r="A48" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="120" t="s">
-        <v>689</v>
-      </c>
-      <c r="C48" s="120"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="120"/>
-      <c r="F48" s="120"/>
+      <c r="B48" s="123" t="s">
+        <v>688</v>
+      </c>
+      <c r="C48" s="123"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="123"/>
+      <c r="F48" s="123"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="120" t="s">
+      <c r="B49" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="120"/>
-      <c r="D49" s="120"/>
-      <c r="E49" s="120"/>
-      <c r="F49" s="120"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="123"/>
+      <c r="F49" s="123"/>
     </row>
     <row r="50" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="108" t="s">
         <v>4</v>
       </c>
       <c r="B50" s="121" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C50" s="121"/>
       <c r="D50" s="121"/>
@@ -22883,7 +22905,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>16</v>
@@ -22901,7 +22923,7 @@
     </row>
     <row r="53" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>22</v>
@@ -22910,7 +22932,7 @@
         <v>17</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>27</v>
@@ -22928,7 +22950,7 @@
         <v>17</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="6"/>
@@ -22944,7 +22966,7 @@
         <v>17</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="8" t="s">
@@ -22953,7 +22975,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>331</v>
@@ -22962,14 +22984,14 @@
         <v>17</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="8"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>331</v>
@@ -22978,14 +23000,14 @@
         <v>17</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="8"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>331</v>
@@ -22994,14 +23016,14 @@
         <v>17</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="8"/>
     </row>
     <row r="59" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A59" s="88" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B59" s="88" t="s">
         <v>331</v>
@@ -23010,23 +23032,23 @@
         <v>17</v>
       </c>
       <c r="D59" s="88" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E59" s="89"/>
       <c r="F59" s="109"/>
-      <c r="G59" s="137" t="s">
-        <v>721</v>
-      </c>
-      <c r="H59" s="138"/>
-      <c r="I59" s="138"/>
-      <c r="J59" s="138"/>
-      <c r="K59" s="138"/>
-      <c r="L59" s="138"/>
-      <c r="M59" s="138"/>
+      <c r="G59" s="139" t="s">
+        <v>720</v>
+      </c>
+      <c r="H59" s="140"/>
+      <c r="I59" s="140"/>
+      <c r="J59" s="140"/>
+      <c r="K59" s="140"/>
+      <c r="L59" s="140"/>
+      <c r="M59" s="140"/>
     </row>
     <row r="60" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A60" s="88" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B60" s="88" t="s">
         <v>331</v>
@@ -23035,21 +23057,21 @@
         <v>17</v>
       </c>
       <c r="D60" s="88" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E60" s="89"/>
       <c r="F60" s="109"/>
-      <c r="G60" s="137"/>
-      <c r="H60" s="138"/>
-      <c r="I60" s="138"/>
-      <c r="J60" s="138"/>
-      <c r="K60" s="138"/>
-      <c r="L60" s="138"/>
-      <c r="M60" s="138"/>
+      <c r="G60" s="139"/>
+      <c r="H60" s="140"/>
+      <c r="I60" s="140"/>
+      <c r="J60" s="140"/>
+      <c r="K60" s="140"/>
+      <c r="L60" s="140"/>
+      <c r="M60" s="140"/>
     </row>
     <row r="61" spans="1:13" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A61" s="88" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B61" s="88" t="s">
         <v>331</v>
@@ -23058,17 +23080,17 @@
         <v>17</v>
       </c>
       <c r="D61" s="88" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E61" s="89"/>
       <c r="F61" s="109"/>
-      <c r="G61" s="137"/>
-      <c r="H61" s="138"/>
-      <c r="I61" s="138"/>
-      <c r="J61" s="138"/>
-      <c r="K61" s="138"/>
-      <c r="L61" s="138"/>
-      <c r="M61" s="138"/>
+      <c r="G61" s="139"/>
+      <c r="H61" s="140"/>
+      <c r="I61" s="140"/>
+      <c r="J61" s="140"/>
+      <c r="K61" s="140"/>
+      <c r="L61" s="140"/>
+      <c r="M61" s="140"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
@@ -23081,7 +23103,7 @@
         <v>21</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="8"/>
@@ -23177,7 +23199,7 @@
         <v>21</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="6"/>
@@ -23193,7 +23215,7 @@
         <v>21</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="6"/>
@@ -23202,25 +23224,25 @@
       <c r="A73" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="120" t="s">
-        <v>705</v>
-      </c>
-      <c r="C73" s="120"/>
-      <c r="D73" s="120"/>
-      <c r="E73" s="120"/>
-      <c r="F73" s="120"/>
+      <c r="B73" s="123" t="s">
+        <v>704</v>
+      </c>
+      <c r="C73" s="123"/>
+      <c r="D73" s="123"/>
+      <c r="E73" s="123"/>
+      <c r="F73" s="123"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B74" s="120" t="s">
+      <c r="B74" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="120"/>
-      <c r="D74" s="120"/>
-      <c r="E74" s="120"/>
-      <c r="F74" s="120"/>
+      <c r="C74" s="123"/>
+      <c r="D74" s="123"/>
+      <c r="E74" s="123"/>
+      <c r="F74" s="123"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="108" t="s">
@@ -23254,7 +23276,7 @@
     </row>
     <row r="77" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>16</v>
@@ -23263,7 +23285,7 @@
         <v>17</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>95</v>
@@ -23281,7 +23303,7 @@
         <v>17</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>18</v>
@@ -23290,7 +23312,7 @@
     </row>
     <row r="79" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>22</v>
@@ -23299,7 +23321,7 @@
         <v>17</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>27</v>
@@ -23317,7 +23339,7 @@
         <v>17</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="6"/>
@@ -23333,7 +23355,7 @@
         <v>17</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="8" t="s">
@@ -23351,14 +23373,14 @@
         <v>17</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="8"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>331</v>
@@ -23367,14 +23389,14 @@
         <v>17</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="6"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>331</v>
@@ -23383,7 +23405,7 @@
         <v>17</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="6"/>
@@ -23399,7 +23421,7 @@
         <v>21</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="8"/>
@@ -23463,7 +23485,7 @@
         <v>21</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E89" s="7"/>
       <c r="F89" s="6"/>
@@ -23479,22 +23501,13 @@
         <v>21</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G59:M61"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
     <mergeCell ref="B73:F73"/>
     <mergeCell ref="B74:F74"/>
     <mergeCell ref="B75:F75"/>
@@ -23507,6 +23520,15 @@
     <mergeCell ref="B37:F37"/>
     <mergeCell ref="B38:F38"/>
     <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G59:M61"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -23536,25 +23558,25 @@
       <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="134" t="s">
         <v>314</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="136"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -23640,34 +23662,34 @@
       <c r="A11" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="142"/>
-      <c r="K11" s="142"/>
-      <c r="L11" s="142"/>
-      <c r="M11" s="142"/>
-      <c r="N11" s="142"/>
-      <c r="O11" s="142"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="144"/>
+      <c r="O11" s="144"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
     </row>
     <row r="13" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -23947,25 +23969,25 @@
       <c r="A32" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="132" t="s">
+      <c r="B32" s="134" t="s">
         <v>607</v>
       </c>
-      <c r="C32" s="133"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="134"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="136"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="120" t="s">
+      <c r="B33" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="120"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="82" t="s">
@@ -24047,25 +24069,25 @@
       <c r="A40" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="128" t="s">
+      <c r="B40" s="132" t="s">
         <v>294</v>
       </c>
-      <c r="C40" s="128"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="132"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="120" t="s">
+      <c r="B41" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="120"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="123"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
@@ -24263,32 +24285,32 @@
       <c r="A57" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="132" t="s">
-        <v>634</v>
-      </c>
-      <c r="C57" s="133"/>
-      <c r="D57" s="133"/>
-      <c r="E57" s="133"/>
-      <c r="F57" s="134"/>
+      <c r="B57" s="134" t="s">
+        <v>633</v>
+      </c>
+      <c r="C57" s="135"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="135"/>
+      <c r="F57" s="136"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="120" t="s">
+      <c r="B58" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="120"/>
-      <c r="D58" s="120"/>
-      <c r="E58" s="120"/>
-      <c r="F58" s="120"/>
+      <c r="C58" s="123"/>
+      <c r="D58" s="123"/>
+      <c r="E58" s="123"/>
+      <c r="F58" s="123"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="90" t="s">
         <v>4</v>
       </c>
       <c r="B59" s="121" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C59" s="121"/>
       <c r="D59" s="121"/>
@@ -24317,7 +24339,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>22</v>
@@ -24335,7 +24357,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>256</v>
@@ -24344,14 +24366,14 @@
         <v>21</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="6"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>56</v>
@@ -24360,7 +24382,7 @@
         <v>17</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="6"/>
@@ -24376,7 +24398,7 @@
         <v>17</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="6"/>
@@ -24461,30 +24483,30 @@
       <c r="A72" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="132" t="s">
-        <v>648</v>
-      </c>
-      <c r="C72" s="133"/>
-      <c r="D72" s="133"/>
-      <c r="E72" s="133"/>
-      <c r="F72" s="134"/>
+      <c r="B72" s="134" t="s">
+        <v>647</v>
+      </c>
+      <c r="C72" s="135"/>
+      <c r="D72" s="135"/>
+      <c r="E72" s="135"/>
+      <c r="F72" s="136"/>
       <c r="G72" s="92" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="120" t="s">
+      <c r="B73" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="120"/>
-      <c r="D73" s="120"/>
-      <c r="E73" s="120"/>
-      <c r="F73" s="120"/>
+      <c r="C73" s="123"/>
+      <c r="D73" s="123"/>
+      <c r="E73" s="123"/>
+      <c r="F73" s="123"/>
       <c r="G73" s="92" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -24492,7 +24514,7 @@
         <v>4</v>
       </c>
       <c r="B74" s="121" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C74" s="121"/>
       <c r="D74" s="121"/>
@@ -24521,7 +24543,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>16</v>
@@ -24555,13 +24577,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G11:O11"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:F73"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
@@ -24574,6 +24589,13 @@
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G11:O11"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:F73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24603,25 +24625,25 @@
       <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="123" t="s">
         <v>593</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="79" t="s">
@@ -24709,25 +24731,25 @@
       <c r="A10" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="123" t="s">
         <v>468</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="56" t="s">
@@ -24849,25 +24871,25 @@
       <c r="A20" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="120" t="s">
+      <c r="B20" s="123" t="s">
         <v>598</v>
       </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="80" t="s">
@@ -24957,25 +24979,25 @@
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="120" t="s">
+      <c r="B28" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="120" t="s">
+      <c r="B29" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -25141,25 +25163,25 @@
       <c r="A41" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="120" t="s">
+      <c r="B41" s="123" t="s">
         <v>305</v>
       </c>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="120"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="123"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="120" t="s">
+      <c r="B42" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="120"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="120"/>
+      <c r="C42" s="123"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="123"/>
+      <c r="F42" s="123"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
@@ -25345,25 +25367,25 @@
       <c r="A56" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="120" t="s">
+      <c r="B56" s="123" t="s">
         <v>599</v>
       </c>
-      <c r="C56" s="120"/>
-      <c r="D56" s="120"/>
-      <c r="E56" s="120"/>
-      <c r="F56" s="120"/>
+      <c r="C56" s="123"/>
+      <c r="D56" s="123"/>
+      <c r="E56" s="123"/>
+      <c r="F56" s="123"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="120" t="s">
+      <c r="B57" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="120"/>
-      <c r="D57" s="120"/>
-      <c r="E57" s="120"/>
-      <c r="F57" s="120"/>
+      <c r="C57" s="123"/>
+      <c r="D57" s="123"/>
+      <c r="E57" s="123"/>
+      <c r="F57" s="123"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="80" t="s">
@@ -25437,37 +25459,37 @@
       <c r="A64" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="144" t="s">
+      <c r="B64" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="144"/>
-      <c r="D64" s="144"/>
-      <c r="E64" s="144"/>
-      <c r="F64" s="144"/>
+      <c r="C64" s="146"/>
+      <c r="D64" s="146"/>
+      <c r="E64" s="146"/>
+      <c r="F64" s="146"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="144" t="s">
+      <c r="B65" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="144"/>
-      <c r="D65" s="144"/>
-      <c r="E65" s="144"/>
-      <c r="F65" s="144"/>
+      <c r="C65" s="146"/>
+      <c r="D65" s="146"/>
+      <c r="E65" s="146"/>
+      <c r="F65" s="146"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="143" t="s">
+      <c r="B66" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="143"/>
-      <c r="D66" s="143"/>
-      <c r="E66" s="143"/>
-      <c r="F66" s="143"/>
+      <c r="C66" s="145"/>
+      <c r="D66" s="145"/>
+      <c r="E66" s="145"/>
+      <c r="F66" s="145"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
@@ -25805,37 +25827,37 @@
       <c r="A89" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="144" t="s">
+      <c r="B89" s="146" t="s">
         <v>252</v>
       </c>
-      <c r="C89" s="144"/>
-      <c r="D89" s="144"/>
-      <c r="E89" s="144"/>
-      <c r="F89" s="144"/>
+      <c r="C89" s="146"/>
+      <c r="D89" s="146"/>
+      <c r="E89" s="146"/>
+      <c r="F89" s="146"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B90" s="144" t="s">
+      <c r="B90" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="C90" s="144"/>
-      <c r="D90" s="144"/>
-      <c r="E90" s="144"/>
-      <c r="F90" s="144"/>
+      <c r="C90" s="146"/>
+      <c r="D90" s="146"/>
+      <c r="E90" s="146"/>
+      <c r="F90" s="146"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B91" s="143" t="s">
+      <c r="B91" s="145" t="s">
         <v>196</v>
       </c>
-      <c r="C91" s="143"/>
-      <c r="D91" s="143"/>
-      <c r="E91" s="143"/>
-      <c r="F91" s="143"/>
+      <c r="C91" s="145"/>
+      <c r="D91" s="145"/>
+      <c r="E91" s="145"/>
+      <c r="F91" s="145"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
@@ -25943,6 +25965,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B10:F10"/>
     <mergeCell ref="B91:F91"/>
     <mergeCell ref="B64:F64"/>
     <mergeCell ref="B65:F65"/>
@@ -25955,18 +25989,6 @@
     <mergeCell ref="B56:F56"/>
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25996,25 +26018,25 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="123" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
     </row>
     <row r="5" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -26164,25 +26186,25 @@
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="120" t="s">
+      <c r="B16" s="123" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -26364,25 +26386,25 @@
       <c r="A31" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="120" t="s">
+      <c r="B31" s="123" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="120"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="120"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="120" t="s">
+      <c r="B32" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="120"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="120"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
@@ -26578,25 +26600,25 @@
       <c r="A47" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="120" t="s">
+      <c r="B47" s="123" t="s">
         <v>149</v>
       </c>
-      <c r="C47" s="120"/>
-      <c r="D47" s="120"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="120"/>
+      <c r="C47" s="123"/>
+      <c r="D47" s="123"/>
+      <c r="E47" s="123"/>
+      <c r="F47" s="123"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="120" t="s">
+      <c r="B48" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="120"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="120"/>
-      <c r="F48" s="120"/>
+      <c r="C48" s="123"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="123"/>
+      <c r="F48" s="123"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
@@ -26748,18 +26770,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
     <mergeCell ref="B47:F47"/>
     <mergeCell ref="B48:F48"/>
     <mergeCell ref="B49:F49"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Document/DB Design/Data Dic V1-2020.xlsx
+++ b/Document/DB Design/Data Dic V1-2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Underlying (Master Data)" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4530" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4534" uniqueCount="796">
   <si>
     <t>Table Name:</t>
   </si>
@@ -2624,6 +2624,12 @@
   </si>
   <si>
     <t>COMPENSATION_GOVERN_PRICE</t>
+  </si>
+  <si>
+    <t>ACC_TYPE</t>
+  </si>
+  <si>
+    <t>1 = ผู้ใช้งานที่สามารถดูข้อมูลได้ทุกคน, 0 = ผู้ใช้งานทั่วไป, 2 = ผู้ใช้งานทั่วไปและสามารถอนุมัติได้</t>
   </si>
 </sst>
 </file>
@@ -3222,14 +3228,14 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3249,14 +3255,14 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3270,10 +3276,10 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4860,8 +4866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F192"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169"/>
+    <sheetView showGridLines="0" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="F171" sqref="F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4879,37 +4885,37 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
     </row>
     <row r="5" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -5217,37 +5223,37 @@
       <c r="A29" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="122" t="s">
         <v>171</v>
       </c>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="123" t="s">
+      <c r="B30" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
     </row>
     <row r="31" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="121" t="s">
+      <c r="B31" s="123" t="s">
         <v>172</v>
       </c>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="121"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -5403,37 +5409,37 @@
       <c r="A43" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="123" t="s">
+      <c r="B43" s="122" t="s">
         <v>177</v>
       </c>
-      <c r="C43" s="123"/>
-      <c r="D43" s="123"/>
-      <c r="E43" s="123"/>
-      <c r="F43" s="123"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="122"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="123" t="s">
+      <c r="B44" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="123"/>
-      <c r="D44" s="123"/>
-      <c r="E44" s="123"/>
-      <c r="F44" s="123"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="122"/>
+      <c r="F44" s="122"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="121" t="s">
+      <c r="B45" s="123" t="s">
         <v>187</v>
       </c>
-      <c r="C45" s="121"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="121"/>
-      <c r="F45" s="121"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -5621,37 +5627,37 @@
       <c r="A59" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="123" t="s">
+      <c r="B59" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="C59" s="123"/>
-      <c r="D59" s="123"/>
-      <c r="E59" s="123"/>
-      <c r="F59" s="123"/>
+      <c r="C59" s="122"/>
+      <c r="D59" s="122"/>
+      <c r="E59" s="122"/>
+      <c r="F59" s="122"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="123" t="s">
+      <c r="B60" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="123"/>
-      <c r="D60" s="123"/>
-      <c r="E60" s="123"/>
-      <c r="F60" s="123"/>
+      <c r="C60" s="122"/>
+      <c r="D60" s="122"/>
+      <c r="E60" s="122"/>
+      <c r="F60" s="122"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="121" t="s">
+      <c r="B61" s="123" t="s">
         <v>188</v>
       </c>
-      <c r="C61" s="121"/>
-      <c r="D61" s="121"/>
-      <c r="E61" s="121"/>
-      <c r="F61" s="121"/>
+      <c r="C61" s="123"/>
+      <c r="D61" s="123"/>
+      <c r="E61" s="123"/>
+      <c r="F61" s="123"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
@@ -5793,37 +5799,37 @@
       <c r="A72" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="122" t="s">
+      <c r="B72" s="121" t="s">
         <v>471</v>
       </c>
-      <c r="C72" s="122"/>
-      <c r="D72" s="122"/>
-      <c r="E72" s="122"/>
-      <c r="F72" s="122"/>
+      <c r="C72" s="121"/>
+      <c r="D72" s="121"/>
+      <c r="E72" s="121"/>
+      <c r="F72" s="121"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="123" t="s">
+      <c r="B73" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="123"/>
-      <c r="D73" s="123"/>
-      <c r="E73" s="123"/>
-      <c r="F73" s="123"/>
+      <c r="C73" s="122"/>
+      <c r="D73" s="122"/>
+      <c r="E73" s="122"/>
+      <c r="F73" s="122"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="121" t="s">
+      <c r="B74" s="123" t="s">
         <v>461</v>
       </c>
-      <c r="C74" s="121"/>
-      <c r="D74" s="121"/>
-      <c r="E74" s="121"/>
-      <c r="F74" s="121"/>
+      <c r="C74" s="123"/>
+      <c r="D74" s="123"/>
+      <c r="E74" s="123"/>
+      <c r="F74" s="123"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
@@ -5983,37 +5989,37 @@
       <c r="A86" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="122" t="s">
+      <c r="B86" s="121" t="s">
         <v>472</v>
       </c>
-      <c r="C86" s="122"/>
-      <c r="D86" s="122"/>
-      <c r="E86" s="122"/>
-      <c r="F86" s="122"/>
+      <c r="C86" s="121"/>
+      <c r="D86" s="121"/>
+      <c r="E86" s="121"/>
+      <c r="F86" s="121"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B87" s="123" t="s">
+      <c r="B87" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C87" s="123"/>
-      <c r="D87" s="123"/>
-      <c r="E87" s="123"/>
-      <c r="F87" s="123"/>
+      <c r="C87" s="122"/>
+      <c r="D87" s="122"/>
+      <c r="E87" s="122"/>
+      <c r="F87" s="122"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B88" s="121" t="s">
+      <c r="B88" s="123" t="s">
         <v>473</v>
       </c>
-      <c r="C88" s="121"/>
-      <c r="D88" s="121"/>
-      <c r="E88" s="121"/>
-      <c r="F88" s="121"/>
+      <c r="C88" s="123"/>
+      <c r="D88" s="123"/>
+      <c r="E88" s="123"/>
+      <c r="F88" s="123"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
@@ -6139,37 +6145,37 @@
       <c r="A99" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="122" t="s">
+      <c r="B99" s="121" t="s">
         <v>480</v>
       </c>
-      <c r="C99" s="122"/>
-      <c r="D99" s="122"/>
-      <c r="E99" s="122"/>
-      <c r="F99" s="122"/>
+      <c r="C99" s="121"/>
+      <c r="D99" s="121"/>
+      <c r="E99" s="121"/>
+      <c r="F99" s="121"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="123" t="s">
+      <c r="B100" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="123"/>
-      <c r="D100" s="123"/>
-      <c r="E100" s="123"/>
-      <c r="F100" s="123"/>
+      <c r="C100" s="122"/>
+      <c r="D100" s="122"/>
+      <c r="E100" s="122"/>
+      <c r="F100" s="122"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B101" s="121" t="s">
+      <c r="B101" s="123" t="s">
         <v>481</v>
       </c>
-      <c r="C101" s="121"/>
-      <c r="D101" s="121"/>
-      <c r="E101" s="121"/>
-      <c r="F101" s="121"/>
+      <c r="C101" s="123"/>
+      <c r="D101" s="123"/>
+      <c r="E101" s="123"/>
+      <c r="F101" s="123"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
@@ -6311,37 +6317,37 @@
       <c r="A112" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B112" s="122" t="s">
+      <c r="B112" s="121" t="s">
         <v>482</v>
       </c>
-      <c r="C112" s="122"/>
-      <c r="D112" s="122"/>
-      <c r="E112" s="122"/>
-      <c r="F112" s="122"/>
+      <c r="C112" s="121"/>
+      <c r="D112" s="121"/>
+      <c r="E112" s="121"/>
+      <c r="F112" s="121"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B113" s="123" t="s">
+      <c r="B113" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C113" s="123"/>
-      <c r="D113" s="123"/>
-      <c r="E113" s="123"/>
-      <c r="F113" s="123"/>
+      <c r="C113" s="122"/>
+      <c r="D113" s="122"/>
+      <c r="E113" s="122"/>
+      <c r="F113" s="122"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B114" s="121" t="s">
+      <c r="B114" s="123" t="s">
         <v>483</v>
       </c>
-      <c r="C114" s="121"/>
-      <c r="D114" s="121"/>
-      <c r="E114" s="121"/>
-      <c r="F114" s="121"/>
+      <c r="C114" s="123"/>
+      <c r="D114" s="123"/>
+      <c r="E114" s="123"/>
+      <c r="F114" s="123"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
@@ -6437,37 +6443,37 @@
       <c r="A123" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B123" s="122" t="s">
+      <c r="B123" s="121" t="s">
         <v>494</v>
       </c>
-      <c r="C123" s="122"/>
-      <c r="D123" s="122"/>
-      <c r="E123" s="122"/>
-      <c r="F123" s="122"/>
+      <c r="C123" s="121"/>
+      <c r="D123" s="121"/>
+      <c r="E123" s="121"/>
+      <c r="F123" s="121"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="123" t="s">
+      <c r="B124" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="123"/>
-      <c r="D124" s="123"/>
-      <c r="E124" s="123"/>
-      <c r="F124" s="123"/>
+      <c r="C124" s="122"/>
+      <c r="D124" s="122"/>
+      <c r="E124" s="122"/>
+      <c r="F124" s="122"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B125" s="121" t="s">
+      <c r="B125" s="123" t="s">
         <v>509</v>
       </c>
-      <c r="C125" s="121"/>
-      <c r="D125" s="121"/>
-      <c r="E125" s="121"/>
-      <c r="F125" s="121"/>
+      <c r="C125" s="123"/>
+      <c r="D125" s="123"/>
+      <c r="E125" s="123"/>
+      <c r="F125" s="123"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
@@ -6595,37 +6601,37 @@
       <c r="A135" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B135" s="122" t="s">
+      <c r="B135" s="121" t="s">
         <v>587</v>
       </c>
-      <c r="C135" s="122"/>
-      <c r="D135" s="122"/>
-      <c r="E135" s="122"/>
-      <c r="F135" s="122"/>
+      <c r="C135" s="121"/>
+      <c r="D135" s="121"/>
+      <c r="E135" s="121"/>
+      <c r="F135" s="121"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B136" s="123" t="s">
+      <c r="B136" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C136" s="123"/>
-      <c r="D136" s="123"/>
-      <c r="E136" s="123"/>
-      <c r="F136" s="123"/>
+      <c r="C136" s="122"/>
+      <c r="D136" s="122"/>
+      <c r="E136" s="122"/>
+      <c r="F136" s="122"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B137" s="121" t="s">
+      <c r="B137" s="123" t="s">
         <v>588</v>
       </c>
-      <c r="C137" s="121"/>
-      <c r="D137" s="121"/>
-      <c r="E137" s="121"/>
-      <c r="F137" s="121"/>
+      <c r="C137" s="123"/>
+      <c r="D137" s="123"/>
+      <c r="E137" s="123"/>
+      <c r="F137" s="123"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
@@ -6703,37 +6709,37 @@
       <c r="A146" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B146" s="122" t="s">
+      <c r="B146" s="121" t="s">
         <v>508</v>
       </c>
-      <c r="C146" s="122"/>
-      <c r="D146" s="122"/>
-      <c r="E146" s="122"/>
-      <c r="F146" s="122"/>
+      <c r="C146" s="121"/>
+      <c r="D146" s="121"/>
+      <c r="E146" s="121"/>
+      <c r="F146" s="121"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B147" s="123" t="s">
+      <c r="B147" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C147" s="123"/>
-      <c r="D147" s="123"/>
-      <c r="E147" s="123"/>
-      <c r="F147" s="123"/>
+      <c r="C147" s="122"/>
+      <c r="D147" s="122"/>
+      <c r="E147" s="122"/>
+      <c r="F147" s="122"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B148" s="121" t="s">
+      <c r="B148" s="123" t="s">
         <v>507</v>
       </c>
-      <c r="C148" s="121"/>
-      <c r="D148" s="121"/>
-      <c r="E148" s="121"/>
-      <c r="F148" s="121"/>
+      <c r="C148" s="123"/>
+      <c r="D148" s="123"/>
+      <c r="E148" s="123"/>
+      <c r="F148" s="123"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
@@ -6905,37 +6911,37 @@
       <c r="A161" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B161" s="122" t="s">
+      <c r="B161" s="121" t="s">
         <v>613</v>
       </c>
-      <c r="C161" s="122"/>
-      <c r="D161" s="122"/>
-      <c r="E161" s="122"/>
-      <c r="F161" s="122"/>
+      <c r="C161" s="121"/>
+      <c r="D161" s="121"/>
+      <c r="E161" s="121"/>
+      <c r="F161" s="121"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="B162" s="123" t="s">
+      <c r="B162" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C162" s="123"/>
-      <c r="D162" s="123"/>
-      <c r="E162" s="123"/>
-      <c r="F162" s="123"/>
+      <c r="C162" s="122"/>
+      <c r="D162" s="122"/>
+      <c r="E162" s="122"/>
+      <c r="F162" s="122"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B163" s="121" t="s">
+      <c r="B163" s="123" t="s">
         <v>614</v>
       </c>
-      <c r="C163" s="121"/>
-      <c r="D163" s="121"/>
-      <c r="E163" s="121"/>
-      <c r="F163" s="121"/>
+      <c r="C163" s="123"/>
+      <c r="D163" s="123"/>
+      <c r="E163" s="123"/>
+      <c r="F163" s="123"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
@@ -7105,37 +7111,37 @@
       <c r="A177" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B177" s="122" t="s">
+      <c r="B177" s="121" t="s">
         <v>758</v>
       </c>
-      <c r="C177" s="122"/>
-      <c r="D177" s="122"/>
-      <c r="E177" s="122"/>
-      <c r="F177" s="122"/>
+      <c r="C177" s="121"/>
+      <c r="D177" s="121"/>
+      <c r="E177" s="121"/>
+      <c r="F177" s="121"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B178" s="123" t="s">
+      <c r="B178" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C178" s="123"/>
-      <c r="D178" s="123"/>
-      <c r="E178" s="123"/>
-      <c r="F178" s="123"/>
+      <c r="C178" s="122"/>
+      <c r="D178" s="122"/>
+      <c r="E178" s="122"/>
+      <c r="F178" s="122"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B179" s="121" t="s">
+      <c r="B179" s="123" t="s">
         <v>745</v>
       </c>
-      <c r="C179" s="121"/>
-      <c r="D179" s="121"/>
-      <c r="E179" s="121"/>
-      <c r="F179" s="121"/>
+      <c r="C179" s="123"/>
+      <c r="D179" s="123"/>
+      <c r="E179" s="123"/>
+      <c r="F179" s="123"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
@@ -7347,26 +7353,12 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="B179:F179"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="B163:F163"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B123:F123"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B113:F113"/>
     <mergeCell ref="B87:F87"/>
     <mergeCell ref="B88:F88"/>
     <mergeCell ref="B86:F86"/>
@@ -7383,12 +7375,26 @@
     <mergeCell ref="B61:F61"/>
     <mergeCell ref="B59:F59"/>
     <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B178:F178"/>
+    <mergeCell ref="B179:F179"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="B163:F163"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7426,37 +7432,37 @@
       <c r="A3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="130" t="s">
         <v>319</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="123" t="s">
         <v>320</v>
       </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -7514,37 +7520,37 @@
       <c r="A11" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="130" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
     </row>
     <row r="13" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="123" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
       <c r="G13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
@@ -7850,13 +7856,13 @@
       <c r="A26" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="132" t="s">
+      <c r="B26" s="130" t="s">
         <v>442</v>
       </c>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
@@ -7871,13 +7877,13 @@
       <c r="A27" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="123" t="s">
+      <c r="B27" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
@@ -7892,13 +7898,13 @@
       <c r="A28" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="121" t="s">
+      <c r="B28" s="123" t="s">
         <v>440</v>
       </c>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
@@ -8080,37 +8086,37 @@
       <c r="A36" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="132" t="s">
+      <c r="B36" s="130" t="s">
         <v>264</v>
       </c>
-      <c r="C36" s="132"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="132"/>
-      <c r="F36" s="132"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="130"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="123" t="s">
+      <c r="B37" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="123"/>
-      <c r="D37" s="123"/>
-      <c r="E37" s="123"/>
-      <c r="F37" s="123"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="122"/>
     </row>
     <row r="38" spans="1:15" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="121" t="s">
+      <c r="B38" s="123" t="s">
         <v>258</v>
       </c>
-      <c r="C38" s="121"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="121"/>
-      <c r="F38" s="121"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
       <c r="G38" s="17"/>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
@@ -8362,37 +8368,37 @@
       <c r="A49" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="132" t="s">
+      <c r="B49" s="130" t="s">
         <v>262</v>
       </c>
-      <c r="C49" s="132"/>
-      <c r="D49" s="132"/>
-      <c r="E49" s="132"/>
-      <c r="F49" s="132"/>
+      <c r="C49" s="130"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="130"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="123" t="s">
+      <c r="B50" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="123"/>
-      <c r="D50" s="123"/>
-      <c r="E50" s="123"/>
-      <c r="F50" s="123"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="122"/>
     </row>
     <row r="51" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="121" t="s">
+      <c r="B51" s="123" t="s">
         <v>268</v>
       </c>
-      <c r="C51" s="121"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="121"/>
-      <c r="F51" s="121"/>
+      <c r="C51" s="123"/>
+      <c r="D51" s="123"/>
+      <c r="E51" s="123"/>
+      <c r="F51" s="123"/>
       <c r="G51" s="17"/>
       <c r="I51" s="17"/>
       <c r="J51" s="17"/>
@@ -8748,13 +8754,13 @@
       <c r="A66" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="132" t="s">
+      <c r="B66" s="130" t="s">
         <v>443</v>
       </c>
-      <c r="C66" s="132"/>
-      <c r="D66" s="132"/>
-      <c r="E66" s="132"/>
-      <c r="F66" s="132"/>
+      <c r="C66" s="130"/>
+      <c r="D66" s="130"/>
+      <c r="E66" s="130"/>
+      <c r="F66" s="130"/>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
@@ -8769,13 +8775,13 @@
       <c r="A67" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="123" t="s">
+      <c r="B67" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="123"/>
-      <c r="D67" s="123"/>
-      <c r="E67" s="123"/>
-      <c r="F67" s="123"/>
+      <c r="C67" s="122"/>
+      <c r="D67" s="122"/>
+      <c r="E67" s="122"/>
+      <c r="F67" s="122"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
@@ -8790,13 +8796,13 @@
       <c r="A68" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="121" t="s">
+      <c r="B68" s="123" t="s">
         <v>440</v>
       </c>
-      <c r="C68" s="121"/>
-      <c r="D68" s="121"/>
-      <c r="E68" s="121"/>
-      <c r="F68" s="121"/>
+      <c r="C68" s="123"/>
+      <c r="D68" s="123"/>
+      <c r="E68" s="123"/>
+      <c r="F68" s="123"/>
       <c r="G68" s="17"/>
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
@@ -8978,13 +8984,13 @@
       <c r="A76" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="132" t="s">
+      <c r="B76" s="130" t="s">
         <v>210</v>
       </c>
-      <c r="C76" s="132"/>
-      <c r="D76" s="132"/>
-      <c r="E76" s="132"/>
-      <c r="F76" s="132"/>
+      <c r="C76" s="130"/>
+      <c r="D76" s="130"/>
+      <c r="E76" s="130"/>
+      <c r="F76" s="130"/>
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
@@ -8999,13 +9005,13 @@
       <c r="A77" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="123" t="s">
+      <c r="B77" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="123"/>
-      <c r="D77" s="123"/>
-      <c r="E77" s="123"/>
-      <c r="F77" s="123"/>
+      <c r="C77" s="122"/>
+      <c r="D77" s="122"/>
+      <c r="E77" s="122"/>
+      <c r="F77" s="122"/>
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
@@ -9020,13 +9026,13 @@
       <c r="A78" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="121" t="s">
+      <c r="B78" s="123" t="s">
         <v>283</v>
       </c>
-      <c r="C78" s="121"/>
-      <c r="D78" s="121"/>
-      <c r="E78" s="121"/>
-      <c r="F78" s="121"/>
+      <c r="C78" s="123"/>
+      <c r="D78" s="123"/>
+      <c r="E78" s="123"/>
+      <c r="F78" s="123"/>
       <c r="G78" s="17"/>
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
@@ -9381,37 +9387,37 @@
       <c r="A93" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="132" t="s">
+      <c r="B93" s="130" t="s">
         <v>269</v>
       </c>
-      <c r="C93" s="132"/>
-      <c r="D93" s="132"/>
-      <c r="E93" s="132"/>
-      <c r="F93" s="132"/>
+      <c r="C93" s="130"/>
+      <c r="D93" s="130"/>
+      <c r="E93" s="130"/>
+      <c r="F93" s="130"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B94" s="123" t="s">
+      <c r="B94" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C94" s="123"/>
-      <c r="D94" s="123"/>
-      <c r="E94" s="123"/>
-      <c r="F94" s="123"/>
+      <c r="C94" s="122"/>
+      <c r="D94" s="122"/>
+      <c r="E94" s="122"/>
+      <c r="F94" s="122"/>
     </row>
     <row r="95" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B95" s="121" t="s">
+      <c r="B95" s="123" t="s">
         <v>259</v>
       </c>
-      <c r="C95" s="121"/>
-      <c r="D95" s="121"/>
-      <c r="E95" s="121"/>
-      <c r="F95" s="121"/>
+      <c r="C95" s="123"/>
+      <c r="D95" s="123"/>
+      <c r="E95" s="123"/>
+      <c r="F95" s="123"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
@@ -9499,37 +9505,37 @@
       <c r="A102" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="132" t="s">
+      <c r="B102" s="130" t="s">
         <v>159</v>
       </c>
-      <c r="C102" s="132"/>
-      <c r="D102" s="132"/>
-      <c r="E102" s="132"/>
-      <c r="F102" s="132"/>
+      <c r="C102" s="130"/>
+      <c r="D102" s="130"/>
+      <c r="E102" s="130"/>
+      <c r="F102" s="130"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B103" s="123" t="s">
+      <c r="B103" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C103" s="123"/>
-      <c r="D103" s="123"/>
-      <c r="E103" s="123"/>
-      <c r="F103" s="123"/>
+      <c r="C103" s="122"/>
+      <c r="D103" s="122"/>
+      <c r="E103" s="122"/>
+      <c r="F103" s="122"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B104" s="121" t="s">
+      <c r="B104" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="C104" s="121"/>
-      <c r="D104" s="121"/>
-      <c r="E104" s="121"/>
-      <c r="F104" s="121"/>
+      <c r="C104" s="123"/>
+      <c r="D104" s="123"/>
+      <c r="E104" s="123"/>
+      <c r="F104" s="123"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
@@ -9729,37 +9735,37 @@
       <c r="A118" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="132" t="s">
+      <c r="B118" s="130" t="s">
         <v>160</v>
       </c>
-      <c r="C118" s="132"/>
-      <c r="D118" s="132"/>
-      <c r="E118" s="132"/>
-      <c r="F118" s="132"/>
+      <c r="C118" s="130"/>
+      <c r="D118" s="130"/>
+      <c r="E118" s="130"/>
+      <c r="F118" s="130"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B119" s="123" t="s">
+      <c r="B119" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C119" s="123"/>
-      <c r="D119" s="123"/>
-      <c r="E119" s="123"/>
-      <c r="F119" s="123"/>
+      <c r="C119" s="122"/>
+      <c r="D119" s="122"/>
+      <c r="E119" s="122"/>
+      <c r="F119" s="122"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B120" s="121" t="s">
+      <c r="B120" s="123" t="s">
         <v>162</v>
       </c>
-      <c r="C120" s="121"/>
-      <c r="D120" s="121"/>
-      <c r="E120" s="121"/>
-      <c r="F120" s="121"/>
+      <c r="C120" s="123"/>
+      <c r="D120" s="123"/>
+      <c r="E120" s="123"/>
+      <c r="F120" s="123"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
@@ -9969,37 +9975,37 @@
       <c r="A135" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B135" s="132" t="s">
+      <c r="B135" s="130" t="s">
         <v>163</v>
       </c>
-      <c r="C135" s="132"/>
-      <c r="D135" s="132"/>
-      <c r="E135" s="132"/>
-      <c r="F135" s="132"/>
+      <c r="C135" s="130"/>
+      <c r="D135" s="130"/>
+      <c r="E135" s="130"/>
+      <c r="F135" s="130"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B136" s="123" t="s">
+      <c r="B136" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C136" s="123"/>
-      <c r="D136" s="123"/>
-      <c r="E136" s="123"/>
-      <c r="F136" s="123"/>
+      <c r="C136" s="122"/>
+      <c r="D136" s="122"/>
+      <c r="E136" s="122"/>
+      <c r="F136" s="122"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B137" s="121" t="s">
+      <c r="B137" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="C137" s="121"/>
-      <c r="D137" s="121"/>
-      <c r="E137" s="121"/>
-      <c r="F137" s="121"/>
+      <c r="C137" s="123"/>
+      <c r="D137" s="123"/>
+      <c r="E137" s="123"/>
+      <c r="F137" s="123"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
@@ -10199,37 +10205,37 @@
       <c r="A151" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B151" s="132" t="s">
+      <c r="B151" s="130" t="s">
         <v>198</v>
       </c>
-      <c r="C151" s="132"/>
-      <c r="D151" s="132"/>
-      <c r="E151" s="132"/>
-      <c r="F151" s="132"/>
+      <c r="C151" s="130"/>
+      <c r="D151" s="130"/>
+      <c r="E151" s="130"/>
+      <c r="F151" s="130"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B152" s="123" t="s">
+      <c r="B152" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C152" s="123"/>
-      <c r="D152" s="123"/>
-      <c r="E152" s="123"/>
-      <c r="F152" s="123"/>
+      <c r="C152" s="122"/>
+      <c r="D152" s="122"/>
+      <c r="E152" s="122"/>
+      <c r="F152" s="122"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B153" s="121" t="s">
+      <c r="B153" s="123" t="s">
         <v>655</v>
       </c>
-      <c r="C153" s="121"/>
-      <c r="D153" s="121"/>
-      <c r="E153" s="121"/>
-      <c r="F153" s="121"/>
+      <c r="C153" s="123"/>
+      <c r="D153" s="123"/>
+      <c r="E153" s="123"/>
+      <c r="F153" s="123"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
@@ -10474,13 +10480,13 @@
       <c r="A170" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B170" s="132" t="s">
+      <c r="B170" s="130" t="s">
         <v>200</v>
       </c>
-      <c r="C170" s="132"/>
-      <c r="D170" s="132"/>
-      <c r="E170" s="132"/>
-      <c r="F170" s="132"/>
+      <c r="C170" s="130"/>
+      <c r="D170" s="130"/>
+      <c r="E170" s="130"/>
+      <c r="F170" s="130"/>
       <c r="H170" s="17"/>
       <c r="I170" s="17"/>
       <c r="J170" s="17"/>
@@ -10493,25 +10499,25 @@
       <c r="A171" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B171" s="123" t="s">
+      <c r="B171" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C171" s="123"/>
-      <c r="D171" s="123"/>
-      <c r="E171" s="123"/>
-      <c r="F171" s="123"/>
+      <c r="C171" s="122"/>
+      <c r="D171" s="122"/>
+      <c r="E171" s="122"/>
+      <c r="F171" s="122"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B172" s="121" t="s">
+      <c r="B172" s="123" t="s">
         <v>166</v>
       </c>
-      <c r="C172" s="121"/>
-      <c r="D172" s="121"/>
-      <c r="E172" s="121"/>
-      <c r="F172" s="121"/>
+      <c r="C172" s="123"/>
+      <c r="D172" s="123"/>
+      <c r="E172" s="123"/>
+      <c r="F172" s="123"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
@@ -10887,37 +10893,37 @@
       <c r="A196" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B196" s="132" t="s">
+      <c r="B196" s="130" t="s">
         <v>454</v>
       </c>
-      <c r="C196" s="132"/>
-      <c r="D196" s="132"/>
-      <c r="E196" s="132"/>
-      <c r="F196" s="132"/>
+      <c r="C196" s="130"/>
+      <c r="D196" s="130"/>
+      <c r="E196" s="130"/>
+      <c r="F196" s="130"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B197" s="123" t="s">
+      <c r="B197" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C197" s="123"/>
-      <c r="D197" s="123"/>
-      <c r="E197" s="123"/>
-      <c r="F197" s="123"/>
+      <c r="C197" s="122"/>
+      <c r="D197" s="122"/>
+      <c r="E197" s="122"/>
+      <c r="F197" s="122"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B198" s="121" t="s">
+      <c r="B198" s="123" t="s">
         <v>214</v>
       </c>
-      <c r="C198" s="121"/>
-      <c r="D198" s="121"/>
-      <c r="E198" s="121"/>
-      <c r="F198" s="121"/>
+      <c r="C198" s="123"/>
+      <c r="D198" s="123"/>
+      <c r="E198" s="123"/>
+      <c r="F198" s="123"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
@@ -10993,37 +10999,37 @@
       <c r="A204" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B204" s="132" t="s">
+      <c r="B204" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="C204" s="132"/>
-      <c r="D204" s="132"/>
-      <c r="E204" s="132"/>
-      <c r="F204" s="132"/>
+      <c r="C204" s="130"/>
+      <c r="D204" s="130"/>
+      <c r="E204" s="130"/>
+      <c r="F204" s="130"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B205" s="123" t="s">
+      <c r="B205" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C205" s="123"/>
-      <c r="D205" s="123"/>
-      <c r="E205" s="123"/>
-      <c r="F205" s="123"/>
+      <c r="C205" s="122"/>
+      <c r="D205" s="122"/>
+      <c r="E205" s="122"/>
+      <c r="F205" s="122"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B206" s="121" t="s">
+      <c r="B206" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="C206" s="121"/>
-      <c r="D206" s="121"/>
-      <c r="E206" s="121"/>
-      <c r="F206" s="121"/>
+      <c r="C206" s="123"/>
+      <c r="D206" s="123"/>
+      <c r="E206" s="123"/>
+      <c r="F206" s="123"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
@@ -11100,37 +11106,37 @@
       <c r="A212" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B212" s="132" t="s">
+      <c r="B212" s="130" t="s">
         <v>447</v>
       </c>
-      <c r="C212" s="132"/>
-      <c r="D212" s="132"/>
-      <c r="E212" s="132"/>
-      <c r="F212" s="132"/>
+      <c r="C212" s="130"/>
+      <c r="D212" s="130"/>
+      <c r="E212" s="130"/>
+      <c r="F212" s="130"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B213" s="123" t="s">
+      <c r="B213" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C213" s="123"/>
-      <c r="D213" s="123"/>
-      <c r="E213" s="123"/>
-      <c r="F213" s="123"/>
+      <c r="C213" s="122"/>
+      <c r="D213" s="122"/>
+      <c r="E213" s="122"/>
+      <c r="F213" s="122"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B214" s="121" t="s">
+      <c r="B214" s="123" t="s">
         <v>203</v>
       </c>
-      <c r="C214" s="121"/>
-      <c r="D214" s="121"/>
-      <c r="E214" s="121"/>
-      <c r="F214" s="121"/>
+      <c r="C214" s="123"/>
+      <c r="D214" s="123"/>
+      <c r="E214" s="123"/>
+      <c r="F214" s="123"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
@@ -11205,37 +11211,37 @@
       <c r="A220" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B220" s="132" t="s">
+      <c r="B220" s="130" t="s">
         <v>311</v>
       </c>
-      <c r="C220" s="132"/>
-      <c r="D220" s="132"/>
-      <c r="E220" s="132"/>
-      <c r="F220" s="132"/>
+      <c r="C220" s="130"/>
+      <c r="D220" s="130"/>
+      <c r="E220" s="130"/>
+      <c r="F220" s="130"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B221" s="123" t="s">
+      <c r="B221" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C221" s="123"/>
-      <c r="D221" s="123"/>
-      <c r="E221" s="123"/>
-      <c r="F221" s="123"/>
+      <c r="C221" s="122"/>
+      <c r="D221" s="122"/>
+      <c r="E221" s="122"/>
+      <c r="F221" s="122"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B222" s="121" t="s">
+      <c r="B222" s="123" t="s">
         <v>310</v>
       </c>
-      <c r="C222" s="121"/>
-      <c r="D222" s="121"/>
-      <c r="E222" s="121"/>
-      <c r="F222" s="121"/>
+      <c r="C222" s="123"/>
+      <c r="D222" s="123"/>
+      <c r="E222" s="123"/>
+      <c r="F222" s="123"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
@@ -11383,37 +11389,37 @@
       <c r="A234" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B234" s="132" t="s">
+      <c r="B234" s="130" t="s">
         <v>323</v>
       </c>
-      <c r="C234" s="132"/>
-      <c r="D234" s="132"/>
-      <c r="E234" s="132"/>
-      <c r="F234" s="132"/>
+      <c r="C234" s="130"/>
+      <c r="D234" s="130"/>
+      <c r="E234" s="130"/>
+      <c r="F234" s="130"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B235" s="123" t="s">
+      <c r="B235" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C235" s="123"/>
-      <c r="D235" s="123"/>
-      <c r="E235" s="123"/>
-      <c r="F235" s="123"/>
+      <c r="C235" s="122"/>
+      <c r="D235" s="122"/>
+      <c r="E235" s="122"/>
+      <c r="F235" s="122"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B236" s="121" t="s">
+      <c r="B236" s="123" t="s">
         <v>353</v>
       </c>
-      <c r="C236" s="121"/>
-      <c r="D236" s="121"/>
-      <c r="E236" s="121"/>
-      <c r="F236" s="121"/>
+      <c r="C236" s="123"/>
+      <c r="D236" s="123"/>
+      <c r="E236" s="123"/>
+      <c r="F236" s="123"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
@@ -11793,37 +11799,37 @@
       <c r="A261" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B261" s="132" t="s">
+      <c r="B261" s="130" t="s">
         <v>585</v>
       </c>
-      <c r="C261" s="132"/>
-      <c r="D261" s="132"/>
-      <c r="E261" s="132"/>
-      <c r="F261" s="132"/>
+      <c r="C261" s="130"/>
+      <c r="D261" s="130"/>
+      <c r="E261" s="130"/>
+      <c r="F261" s="130"/>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B262" s="123" t="s">
+      <c r="B262" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C262" s="123"/>
-      <c r="D262" s="123"/>
-      <c r="E262" s="123"/>
-      <c r="F262" s="123"/>
+      <c r="C262" s="122"/>
+      <c r="D262" s="122"/>
+      <c r="E262" s="122"/>
+      <c r="F262" s="122"/>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B263" s="121" t="s">
+      <c r="B263" s="123" t="s">
         <v>581</v>
       </c>
-      <c r="C263" s="121"/>
-      <c r="D263" s="121"/>
-      <c r="E263" s="121"/>
-      <c r="F263" s="121"/>
+      <c r="C263" s="123"/>
+      <c r="D263" s="123"/>
+      <c r="E263" s="123"/>
+      <c r="F263" s="123"/>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
@@ -12057,37 +12063,37 @@
       <c r="A278" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B278" s="132" t="s">
+      <c r="B278" s="130" t="s">
         <v>347</v>
       </c>
-      <c r="C278" s="132"/>
-      <c r="D278" s="132"/>
-      <c r="E278" s="132"/>
-      <c r="F278" s="132"/>
+      <c r="C278" s="130"/>
+      <c r="D278" s="130"/>
+      <c r="E278" s="130"/>
+      <c r="F278" s="130"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B279" s="123" t="s">
+      <c r="B279" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C279" s="123"/>
-      <c r="D279" s="123"/>
-      <c r="E279" s="123"/>
-      <c r="F279" s="123"/>
+      <c r="C279" s="122"/>
+      <c r="D279" s="122"/>
+      <c r="E279" s="122"/>
+      <c r="F279" s="122"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B280" s="121" t="s">
+      <c r="B280" s="123" t="s">
         <v>352</v>
       </c>
-      <c r="C280" s="121"/>
-      <c r="D280" s="121"/>
-      <c r="E280" s="121"/>
-      <c r="F280" s="121"/>
+      <c r="C280" s="123"/>
+      <c r="D280" s="123"/>
+      <c r="E280" s="123"/>
+      <c r="F280" s="123"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
@@ -12511,37 +12517,37 @@
       <c r="A307" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B307" s="132" t="s">
+      <c r="B307" s="130" t="s">
         <v>383</v>
       </c>
-      <c r="C307" s="132"/>
-      <c r="D307" s="132"/>
-      <c r="E307" s="132"/>
-      <c r="F307" s="132"/>
+      <c r="C307" s="130"/>
+      <c r="D307" s="130"/>
+      <c r="E307" s="130"/>
+      <c r="F307" s="130"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B308" s="123" t="s">
+      <c r="B308" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C308" s="123"/>
-      <c r="D308" s="123"/>
-      <c r="E308" s="123"/>
-      <c r="F308" s="123"/>
+      <c r="C308" s="122"/>
+      <c r="D308" s="122"/>
+      <c r="E308" s="122"/>
+      <c r="F308" s="122"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B309" s="121" t="s">
+      <c r="B309" s="123" t="s">
         <v>357</v>
       </c>
-      <c r="C309" s="121"/>
-      <c r="D309" s="121"/>
-      <c r="E309" s="121"/>
-      <c r="F309" s="121"/>
+      <c r="C309" s="123"/>
+      <c r="D309" s="123"/>
+      <c r="E309" s="123"/>
+      <c r="F309" s="123"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
@@ -12900,37 +12906,37 @@
       <c r="A332" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B332" s="132" t="s">
+      <c r="B332" s="130" t="s">
         <v>529</v>
       </c>
-      <c r="C332" s="132"/>
-      <c r="D332" s="132"/>
-      <c r="E332" s="132"/>
-      <c r="F332" s="132"/>
+      <c r="C332" s="130"/>
+      <c r="D332" s="130"/>
+      <c r="E332" s="130"/>
+      <c r="F332" s="130"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B333" s="123" t="s">
+      <c r="B333" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C333" s="123"/>
-      <c r="D333" s="123"/>
-      <c r="E333" s="123"/>
-      <c r="F333" s="123"/>
+      <c r="C333" s="122"/>
+      <c r="D333" s="122"/>
+      <c r="E333" s="122"/>
+      <c r="F333" s="122"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B334" s="121" t="s">
+      <c r="B334" s="123" t="s">
         <v>535</v>
       </c>
-      <c r="C334" s="121"/>
-      <c r="D334" s="121"/>
-      <c r="E334" s="121"/>
-      <c r="F334" s="121"/>
+      <c r="C334" s="123"/>
+      <c r="D334" s="123"/>
+      <c r="E334" s="123"/>
+      <c r="F334" s="123"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
@@ -13528,13 +13534,13 @@
       <c r="A365" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B365" s="132" t="s">
+      <c r="B365" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="C365" s="132"/>
-      <c r="D365" s="132"/>
-      <c r="E365" s="132"/>
-      <c r="F365" s="132"/>
+      <c r="C365" s="130"/>
+      <c r="D365" s="130"/>
+      <c r="E365" s="130"/>
+      <c r="F365" s="130"/>
       <c r="G365" s="17"/>
       <c r="H365" s="17"/>
       <c r="I365" s="17"/>
@@ -13548,13 +13554,13 @@
       <c r="A366" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B366" s="123" t="s">
+      <c r="B366" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C366" s="123"/>
-      <c r="D366" s="123"/>
-      <c r="E366" s="123"/>
-      <c r="F366" s="123"/>
+      <c r="C366" s="122"/>
+      <c r="D366" s="122"/>
+      <c r="E366" s="122"/>
+      <c r="F366" s="122"/>
       <c r="G366" s="17"/>
       <c r="H366" s="17"/>
       <c r="I366" s="17"/>
@@ -13568,13 +13574,13 @@
       <c r="A367" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B367" s="121" t="s">
+      <c r="B367" s="123" t="s">
         <v>606</v>
       </c>
-      <c r="C367" s="121"/>
-      <c r="D367" s="121"/>
-      <c r="E367" s="121"/>
-      <c r="F367" s="121"/>
+      <c r="C367" s="123"/>
+      <c r="D367" s="123"/>
+      <c r="E367" s="123"/>
+      <c r="F367" s="123"/>
       <c r="G367" s="17"/>
       <c r="H367" s="17"/>
       <c r="I367" s="17"/>
@@ -14188,13 +14194,13 @@
       <c r="A395" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B395" s="132" t="s">
+      <c r="B395" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="C395" s="132"/>
-      <c r="D395" s="132"/>
-      <c r="E395" s="132"/>
-      <c r="F395" s="132"/>
+      <c r="C395" s="130"/>
+      <c r="D395" s="130"/>
+      <c r="E395" s="130"/>
+      <c r="F395" s="130"/>
       <c r="G395" s="17"/>
       <c r="H395" s="17"/>
       <c r="I395" s="17"/>
@@ -14208,13 +14214,13 @@
       <c r="A396" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B396" s="123" t="s">
+      <c r="B396" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="C396" s="123"/>
-      <c r="D396" s="123"/>
-      <c r="E396" s="123"/>
-      <c r="F396" s="123"/>
+      <c r="C396" s="122"/>
+      <c r="D396" s="122"/>
+      <c r="E396" s="122"/>
+      <c r="F396" s="122"/>
       <c r="G396" s="17"/>
       <c r="H396" s="17"/>
       <c r="I396" s="17"/>
@@ -14228,13 +14234,13 @@
       <c r="A397" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B397" s="121" t="s">
+      <c r="B397" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="C397" s="121"/>
-      <c r="D397" s="121"/>
-      <c r="E397" s="121"/>
-      <c r="F397" s="121"/>
+      <c r="C397" s="123"/>
+      <c r="D397" s="123"/>
+      <c r="E397" s="123"/>
+      <c r="F397" s="123"/>
       <c r="G397" s="17"/>
       <c r="H397" s="17"/>
       <c r="I397" s="17"/>
@@ -14914,13 +14920,13 @@
       <c r="A427" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B427" s="132" t="s">
+      <c r="B427" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="C427" s="132"/>
-      <c r="D427" s="132"/>
-      <c r="E427" s="132"/>
-      <c r="F427" s="132"/>
+      <c r="C427" s="130"/>
+      <c r="D427" s="130"/>
+      <c r="E427" s="130"/>
+      <c r="F427" s="130"/>
       <c r="G427" s="17"/>
       <c r="H427" s="17"/>
       <c r="I427" s="17"/>
@@ -14934,13 +14940,13 @@
       <c r="A428" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B428" s="123" t="s">
+      <c r="B428" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="C428" s="123"/>
-      <c r="D428" s="123"/>
-      <c r="E428" s="123"/>
-      <c r="F428" s="123"/>
+      <c r="C428" s="122"/>
+      <c r="D428" s="122"/>
+      <c r="E428" s="122"/>
+      <c r="F428" s="122"/>
       <c r="G428" s="17"/>
       <c r="H428" s="17"/>
       <c r="I428" s="17"/>
@@ -14954,13 +14960,13 @@
       <c r="A429" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B429" s="121" t="s">
+      <c r="B429" s="123" t="s">
         <v>309</v>
       </c>
-      <c r="C429" s="121"/>
-      <c r="D429" s="121"/>
-      <c r="E429" s="121"/>
-      <c r="F429" s="121"/>
+      <c r="C429" s="123"/>
+      <c r="D429" s="123"/>
+      <c r="E429" s="123"/>
+      <c r="F429" s="123"/>
       <c r="G429" s="17"/>
       <c r="H429" s="17"/>
       <c r="I429" s="17"/>
@@ -15636,13 +15642,13 @@
       <c r="A458" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B458" s="123" t="s">
+      <c r="B458" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C458" s="123"/>
-      <c r="D458" s="123"/>
-      <c r="E458" s="123"/>
-      <c r="F458" s="123"/>
+      <c r="C458" s="122"/>
+      <c r="D458" s="122"/>
+      <c r="E458" s="122"/>
+      <c r="F458" s="122"/>
       <c r="G458" s="17"/>
       <c r="H458" s="17"/>
       <c r="I458" s="17"/>
@@ -15656,13 +15662,13 @@
       <c r="A459" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B459" s="121" t="s">
+      <c r="B459" s="123" t="s">
         <v>649</v>
       </c>
-      <c r="C459" s="121"/>
-      <c r="D459" s="121"/>
-      <c r="E459" s="121"/>
-      <c r="F459" s="121"/>
+      <c r="C459" s="123"/>
+      <c r="D459" s="123"/>
+      <c r="E459" s="123"/>
+      <c r="F459" s="123"/>
       <c r="G459" s="17"/>
       <c r="H459" s="17"/>
       <c r="I459" s="17"/>
@@ -16152,13 +16158,13 @@
       <c r="A483" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B483" s="132" t="s">
+      <c r="B483" s="130" t="s">
         <v>387</v>
       </c>
-      <c r="C483" s="132"/>
-      <c r="D483" s="132"/>
-      <c r="E483" s="132"/>
-      <c r="F483" s="132"/>
+      <c r="C483" s="130"/>
+      <c r="D483" s="130"/>
+      <c r="E483" s="130"/>
+      <c r="F483" s="130"/>
       <c r="G483" s="17"/>
       <c r="H483" s="17"/>
       <c r="I483" s="17"/>
@@ -16172,13 +16178,13 @@
       <c r="A484" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B484" s="123" t="s">
+      <c r="B484" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="C484" s="123"/>
-      <c r="D484" s="123"/>
-      <c r="E484" s="123"/>
-      <c r="F484" s="123"/>
+      <c r="C484" s="122"/>
+      <c r="D484" s="122"/>
+      <c r="E484" s="122"/>
+      <c r="F484" s="122"/>
       <c r="G484" s="17"/>
       <c r="H484" s="17"/>
       <c r="I484" s="17"/>
@@ -16192,13 +16198,13 @@
       <c r="A485" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B485" s="121" t="s">
+      <c r="B485" s="123" t="s">
         <v>377</v>
       </c>
-      <c r="C485" s="121"/>
-      <c r="D485" s="121"/>
-      <c r="E485" s="121"/>
-      <c r="F485" s="121"/>
+      <c r="C485" s="123"/>
+      <c r="D485" s="123"/>
+      <c r="E485" s="123"/>
+      <c r="F485" s="123"/>
       <c r="G485" s="17"/>
       <c r="H485" s="17"/>
       <c r="I485" s="17"/>
@@ -16792,13 +16798,13 @@
       <c r="A511" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B511" s="132" t="s">
+      <c r="B511" s="130" t="s">
         <v>386</v>
       </c>
-      <c r="C511" s="132"/>
-      <c r="D511" s="132"/>
-      <c r="E511" s="132"/>
-      <c r="F511" s="132"/>
+      <c r="C511" s="130"/>
+      <c r="D511" s="130"/>
+      <c r="E511" s="130"/>
+      <c r="F511" s="130"/>
       <c r="G511" s="17"/>
       <c r="H511" s="17"/>
       <c r="I511" s="17"/>
@@ -16812,13 +16818,13 @@
       <c r="A512" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B512" s="123" t="s">
+      <c r="B512" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="C512" s="123"/>
-      <c r="D512" s="123"/>
-      <c r="E512" s="123"/>
-      <c r="F512" s="123"/>
+      <c r="C512" s="122"/>
+      <c r="D512" s="122"/>
+      <c r="E512" s="122"/>
+      <c r="F512" s="122"/>
       <c r="G512" s="17"/>
       <c r="H512" s="17"/>
       <c r="I512" s="17"/>
@@ -16832,13 +16838,13 @@
       <c r="A513" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B513" s="121" t="s">
+      <c r="B513" s="123" t="s">
         <v>388</v>
       </c>
-      <c r="C513" s="121"/>
-      <c r="D513" s="121"/>
-      <c r="E513" s="121"/>
-      <c r="F513" s="121"/>
+      <c r="C513" s="123"/>
+      <c r="D513" s="123"/>
+      <c r="E513" s="123"/>
+      <c r="F513" s="123"/>
       <c r="G513" s="17"/>
       <c r="H513" s="17"/>
       <c r="I513" s="17"/>
@@ -17992,13 +17998,13 @@
       <c r="A562" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B562" s="132" t="s">
+      <c r="B562" s="130" t="s">
         <v>394</v>
       </c>
-      <c r="C562" s="132"/>
-      <c r="D562" s="132"/>
-      <c r="E562" s="132"/>
-      <c r="F562" s="132"/>
+      <c r="C562" s="130"/>
+      <c r="D562" s="130"/>
+      <c r="E562" s="130"/>
+      <c r="F562" s="130"/>
       <c r="H562" s="17"/>
       <c r="I562" s="17"/>
       <c r="J562" s="17"/>
@@ -18011,13 +18017,13 @@
       <c r="A563" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B563" s="123" t="s">
+      <c r="B563" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="C563" s="123"/>
-      <c r="D563" s="123"/>
-      <c r="E563" s="123"/>
-      <c r="F563" s="123"/>
+      <c r="C563" s="122"/>
+      <c r="D563" s="122"/>
+      <c r="E563" s="122"/>
+      <c r="F563" s="122"/>
       <c r="G563" s="44"/>
       <c r="H563" s="44"/>
       <c r="I563" s="44"/>
@@ -18031,13 +18037,13 @@
       <c r="A564" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B564" s="121" t="s">
+      <c r="B564" s="123" t="s">
         <v>385</v>
       </c>
-      <c r="C564" s="121"/>
-      <c r="D564" s="121"/>
-      <c r="E564" s="121"/>
-      <c r="F564" s="121"/>
+      <c r="C564" s="123"/>
+      <c r="D564" s="123"/>
+      <c r="E564" s="123"/>
+      <c r="F564" s="123"/>
       <c r="G564" s="44"/>
       <c r="H564" s="44"/>
       <c r="I564" s="44"/>
@@ -18512,14 +18518,14 @@
       </c>
       <c r="E587" s="7"/>
       <c r="F587" s="6"/>
-      <c r="G587" s="130" t="s">
+      <c r="G587" s="137" t="s">
         <v>660</v>
       </c>
-      <c r="H587" s="131"/>
-      <c r="I587" s="131"/>
-      <c r="J587" s="131"/>
-      <c r="K587" s="131"/>
-      <c r="L587" s="131"/>
+      <c r="H587" s="138"/>
+      <c r="I587" s="138"/>
+      <c r="J587" s="138"/>
+      <c r="K587" s="138"/>
+      <c r="L587" s="138"/>
     </row>
     <row r="588" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A588" s="5" t="s">
@@ -18629,37 +18635,37 @@
       <c r="A597" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B597" s="132" t="s">
+      <c r="B597" s="130" t="s">
         <v>398</v>
       </c>
-      <c r="C597" s="132"/>
-      <c r="D597" s="132"/>
-      <c r="E597" s="132"/>
-      <c r="F597" s="132"/>
+      <c r="C597" s="130"/>
+      <c r="D597" s="130"/>
+      <c r="E597" s="130"/>
+      <c r="F597" s="130"/>
     </row>
     <row r="598" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A598" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B598" s="123" t="s">
+      <c r="B598" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="C598" s="123"/>
-      <c r="D598" s="123"/>
-      <c r="E598" s="123"/>
-      <c r="F598" s="123"/>
+      <c r="C598" s="122"/>
+      <c r="D598" s="122"/>
+      <c r="E598" s="122"/>
+      <c r="F598" s="122"/>
     </row>
     <row r="599" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A599" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B599" s="121" t="s">
+      <c r="B599" s="123" t="s">
         <v>730</v>
       </c>
-      <c r="C599" s="121"/>
-      <c r="D599" s="121"/>
-      <c r="E599" s="121"/>
-      <c r="F599" s="121"/>
+      <c r="C599" s="123"/>
+      <c r="D599" s="123"/>
+      <c r="E599" s="123"/>
+      <c r="F599" s="123"/>
     </row>
     <row r="600" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A600" s="4" t="s">
@@ -19072,37 +19078,37 @@
       <c r="A627" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B627" s="132" t="s">
+      <c r="B627" s="130" t="s">
         <v>731</v>
       </c>
-      <c r="C627" s="132"/>
-      <c r="D627" s="132"/>
-      <c r="E627" s="132"/>
-      <c r="F627" s="132"/>
+      <c r="C627" s="130"/>
+      <c r="D627" s="130"/>
+      <c r="E627" s="130"/>
+      <c r="F627" s="130"/>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="B628" s="123" t="s">
+      <c r="B628" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="C628" s="123"/>
-      <c r="D628" s="123"/>
-      <c r="E628" s="123"/>
-      <c r="F628" s="123"/>
+      <c r="C628" s="122"/>
+      <c r="D628" s="122"/>
+      <c r="E628" s="122"/>
+      <c r="F628" s="122"/>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="B629" s="121" t="s">
+      <c r="B629" s="123" t="s">
         <v>736</v>
       </c>
-      <c r="C629" s="121"/>
-      <c r="D629" s="121"/>
-      <c r="E629" s="121"/>
-      <c r="F629" s="121"/>
+      <c r="C629" s="123"/>
+      <c r="D629" s="123"/>
+      <c r="E629" s="123"/>
+      <c r="F629" s="123"/>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" s="4" t="s">
@@ -19624,37 +19630,37 @@
       <c r="A664" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B664" s="132" t="s">
+      <c r="B664" s="130" t="s">
         <v>734</v>
       </c>
-      <c r="C664" s="132"/>
-      <c r="D664" s="132"/>
-      <c r="E664" s="132"/>
-      <c r="F664" s="132"/>
+      <c r="C664" s="130"/>
+      <c r="D664" s="130"/>
+      <c r="E664" s="130"/>
+      <c r="F664" s="130"/>
     </row>
     <row r="665" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A665" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="B665" s="123" t="s">
+      <c r="B665" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="C665" s="123"/>
-      <c r="D665" s="123"/>
-      <c r="E665" s="123"/>
-      <c r="F665" s="123"/>
+      <c r="C665" s="122"/>
+      <c r="D665" s="122"/>
+      <c r="E665" s="122"/>
+      <c r="F665" s="122"/>
     </row>
     <row r="666" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A666" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="B666" s="121" t="s">
+      <c r="B666" s="123" t="s">
         <v>735</v>
       </c>
-      <c r="C666" s="121"/>
-      <c r="D666" s="121"/>
-      <c r="E666" s="121"/>
-      <c r="F666" s="121"/>
+      <c r="C666" s="123"/>
+      <c r="D666" s="123"/>
+      <c r="E666" s="123"/>
+      <c r="F666" s="123"/>
     </row>
     <row r="667" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A667" s="4" t="s">
@@ -20116,37 +20122,37 @@
       <c r="A715" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B715" s="132" t="s">
+      <c r="B715" s="130" t="s">
         <v>412</v>
       </c>
-      <c r="C715" s="132"/>
-      <c r="D715" s="132"/>
-      <c r="E715" s="132"/>
-      <c r="F715" s="132"/>
+      <c r="C715" s="130"/>
+      <c r="D715" s="130"/>
+      <c r="E715" s="130"/>
+      <c r="F715" s="130"/>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A716" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B716" s="123" t="s">
+      <c r="B716" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="C716" s="123"/>
-      <c r="D716" s="123"/>
-      <c r="E716" s="123"/>
-      <c r="F716" s="123"/>
+      <c r="C716" s="122"/>
+      <c r="D716" s="122"/>
+      <c r="E716" s="122"/>
+      <c r="F716" s="122"/>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A717" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B717" s="121" t="s">
+      <c r="B717" s="123" t="s">
         <v>432</v>
       </c>
-      <c r="C717" s="121"/>
-      <c r="D717" s="121"/>
-      <c r="E717" s="121"/>
-      <c r="F717" s="121"/>
+      <c r="C717" s="123"/>
+      <c r="D717" s="123"/>
+      <c r="E717" s="123"/>
+      <c r="F717" s="123"/>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A718" s="4" t="s">
@@ -20618,37 +20624,37 @@
       <c r="A749" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B749" s="132" t="s">
+      <c r="B749" s="130" t="s">
         <v>544</v>
       </c>
-      <c r="C749" s="132"/>
-      <c r="D749" s="132"/>
-      <c r="E749" s="132"/>
-      <c r="F749" s="132"/>
+      <c r="C749" s="130"/>
+      <c r="D749" s="130"/>
+      <c r="E749" s="130"/>
+      <c r="F749" s="130"/>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A750" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B750" s="123" t="s">
+      <c r="B750" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="C750" s="123"/>
-      <c r="D750" s="123"/>
-      <c r="E750" s="123"/>
-      <c r="F750" s="123"/>
+      <c r="C750" s="122"/>
+      <c r="D750" s="122"/>
+      <c r="E750" s="122"/>
+      <c r="F750" s="122"/>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A751" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B751" s="121" t="s">
+      <c r="B751" s="123" t="s">
         <v>564</v>
       </c>
-      <c r="C751" s="121"/>
-      <c r="D751" s="121"/>
-      <c r="E751" s="121"/>
-      <c r="F751" s="121"/>
+      <c r="C751" s="123"/>
+      <c r="D751" s="123"/>
+      <c r="E751" s="123"/>
+      <c r="F751" s="123"/>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A752" s="4" t="s">
@@ -20966,37 +20972,37 @@
       <c r="A775" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B775" s="132" t="s">
+      <c r="B775" s="130" t="s">
         <v>416</v>
       </c>
-      <c r="C775" s="132"/>
-      <c r="D775" s="132"/>
-      <c r="E775" s="132"/>
-      <c r="F775" s="132"/>
+      <c r="C775" s="130"/>
+      <c r="D775" s="130"/>
+      <c r="E775" s="130"/>
+      <c r="F775" s="130"/>
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A776" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B776" s="123" t="s">
+      <c r="B776" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="C776" s="123"/>
-      <c r="D776" s="123"/>
-      <c r="E776" s="123"/>
-      <c r="F776" s="123"/>
+      <c r="C776" s="122"/>
+      <c r="D776" s="122"/>
+      <c r="E776" s="122"/>
+      <c r="F776" s="122"/>
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A777" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B777" s="121" t="s">
+      <c r="B777" s="123" t="s">
         <v>433</v>
       </c>
-      <c r="C777" s="121"/>
-      <c r="D777" s="121"/>
-      <c r="E777" s="121"/>
-      <c r="F777" s="121"/>
+      <c r="C777" s="123"/>
+      <c r="D777" s="123"/>
+      <c r="E777" s="123"/>
+      <c r="F777" s="123"/>
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A778" s="4" t="s">
@@ -21342,37 +21348,37 @@
       <c r="A801" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B801" s="132" t="s">
+      <c r="B801" s="130" t="s">
         <v>565</v>
       </c>
-      <c r="C801" s="132"/>
-      <c r="D801" s="132"/>
-      <c r="E801" s="132"/>
-      <c r="F801" s="132"/>
+      <c r="C801" s="130"/>
+      <c r="D801" s="130"/>
+      <c r="E801" s="130"/>
+      <c r="F801" s="130"/>
     </row>
     <row r="802" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A802" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B802" s="123" t="s">
+      <c r="B802" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="C802" s="123"/>
-      <c r="D802" s="123"/>
-      <c r="E802" s="123"/>
-      <c r="F802" s="123"/>
+      <c r="C802" s="122"/>
+      <c r="D802" s="122"/>
+      <c r="E802" s="122"/>
+      <c r="F802" s="122"/>
     </row>
     <row r="803" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A803" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B803" s="121" t="s">
+      <c r="B803" s="123" t="s">
         <v>566</v>
       </c>
-      <c r="C803" s="121"/>
-      <c r="D803" s="121"/>
-      <c r="E803" s="121"/>
-      <c r="F803" s="121"/>
+      <c r="C803" s="123"/>
+      <c r="D803" s="123"/>
+      <c r="E803" s="123"/>
+      <c r="F803" s="123"/>
     </row>
     <row r="804" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A804" s="4" t="s">
@@ -21429,19 +21435,19 @@
         <v>95</v>
       </c>
       <c r="F806" s="6"/>
-      <c r="G806" s="137" t="s">
+      <c r="G806" s="131" t="s">
         <v>667</v>
       </c>
-      <c r="H806" s="138"/>
-      <c r="I806" s="138"/>
-      <c r="J806" s="138"/>
-      <c r="K806" s="138"/>
-      <c r="L806" s="138"/>
-      <c r="M806" s="138"/>
-      <c r="N806" s="138"/>
-      <c r="O806" s="138"/>
-      <c r="P806" s="138"/>
-      <c r="Q806" s="138"/>
+      <c r="H806" s="132"/>
+      <c r="I806" s="132"/>
+      <c r="J806" s="132"/>
+      <c r="K806" s="132"/>
+      <c r="L806" s="132"/>
+      <c r="M806" s="132"/>
+      <c r="N806" s="132"/>
+      <c r="O806" s="132"/>
+      <c r="P806" s="132"/>
+      <c r="Q806" s="132"/>
     </row>
     <row r="807" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A807" s="5" t="s">
@@ -21657,37 +21663,37 @@
       <c r="A823" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B823" s="132" t="s">
+      <c r="B823" s="130" t="s">
         <v>765</v>
       </c>
-      <c r="C823" s="132"/>
-      <c r="D823" s="132"/>
-      <c r="E823" s="132"/>
-      <c r="F823" s="132"/>
+      <c r="C823" s="130"/>
+      <c r="D823" s="130"/>
+      <c r="E823" s="130"/>
+      <c r="F823" s="130"/>
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A824" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B824" s="123" t="s">
+      <c r="B824" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="C824" s="123"/>
-      <c r="D824" s="123"/>
-      <c r="E824" s="123"/>
-      <c r="F824" s="123"/>
+      <c r="C824" s="122"/>
+      <c r="D824" s="122"/>
+      <c r="E824" s="122"/>
+      <c r="F824" s="122"/>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A825" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B825" s="121" t="s">
+      <c r="B825" s="123" t="s">
         <v>766</v>
       </c>
-      <c r="C825" s="121"/>
-      <c r="D825" s="121"/>
-      <c r="E825" s="121"/>
-      <c r="F825" s="121"/>
+      <c r="C825" s="123"/>
+      <c r="D825" s="123"/>
+      <c r="E825" s="123"/>
+      <c r="F825" s="123"/>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A826" s="4" t="s">
@@ -22137,6 +22143,100 @@
     </row>
   </sheetData>
   <mergeCells count="118">
+    <mergeCell ref="G587:L587"/>
+    <mergeCell ref="B802:F802"/>
+    <mergeCell ref="B803:F803"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B429:F429"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B749:F749"/>
+    <mergeCell ref="B801:F801"/>
+    <mergeCell ref="B750:F750"/>
+    <mergeCell ref="B751:F751"/>
+    <mergeCell ref="A482:F482"/>
+    <mergeCell ref="B428:F428"/>
+    <mergeCell ref="B562:F562"/>
+    <mergeCell ref="B563:F563"/>
+    <mergeCell ref="B511:F511"/>
+    <mergeCell ref="B512:F512"/>
+    <mergeCell ref="B513:F513"/>
+    <mergeCell ref="B457:F457"/>
+    <mergeCell ref="B458:F458"/>
+    <mergeCell ref="B459:F459"/>
+    <mergeCell ref="B777:F777"/>
+    <mergeCell ref="A714:F714"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B332:F332"/>
+    <mergeCell ref="A233:F233"/>
+    <mergeCell ref="B279:F279"/>
+    <mergeCell ref="A169:F169"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="B333:F333"/>
+    <mergeCell ref="B334:F334"/>
+    <mergeCell ref="B196:F196"/>
+    <mergeCell ref="B197:F197"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="B204:F204"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B261:F261"/>
+    <mergeCell ref="B262:F262"/>
+    <mergeCell ref="B263:F263"/>
+    <mergeCell ref="B776:F776"/>
+    <mergeCell ref="B564:F564"/>
+    <mergeCell ref="B397:F397"/>
+    <mergeCell ref="B597:F597"/>
+    <mergeCell ref="B598:F598"/>
+    <mergeCell ref="B599:F599"/>
+    <mergeCell ref="B427:F427"/>
+    <mergeCell ref="B483:F483"/>
+    <mergeCell ref="B484:F484"/>
+    <mergeCell ref="B485:F485"/>
+    <mergeCell ref="B627:F627"/>
+    <mergeCell ref="B628:F628"/>
+    <mergeCell ref="B629:F629"/>
+    <mergeCell ref="B664:F664"/>
+    <mergeCell ref="B665:F665"/>
+    <mergeCell ref="B666:F666"/>
+    <mergeCell ref="B715:F715"/>
+    <mergeCell ref="B716:F716"/>
+    <mergeCell ref="B717:F717"/>
+    <mergeCell ref="B775:F775"/>
     <mergeCell ref="B823:F823"/>
     <mergeCell ref="B824:F824"/>
     <mergeCell ref="B825:F825"/>
@@ -22161,100 +22261,6 @@
     <mergeCell ref="B214:F214"/>
     <mergeCell ref="B221:F221"/>
     <mergeCell ref="B222:F222"/>
-    <mergeCell ref="B776:F776"/>
-    <mergeCell ref="B564:F564"/>
-    <mergeCell ref="B397:F397"/>
-    <mergeCell ref="B597:F597"/>
-    <mergeCell ref="B598:F598"/>
-    <mergeCell ref="B599:F599"/>
-    <mergeCell ref="B427:F427"/>
-    <mergeCell ref="B483:F483"/>
-    <mergeCell ref="B484:F484"/>
-    <mergeCell ref="B485:F485"/>
-    <mergeCell ref="B627:F627"/>
-    <mergeCell ref="B628:F628"/>
-    <mergeCell ref="B629:F629"/>
-    <mergeCell ref="B664:F664"/>
-    <mergeCell ref="B665:F665"/>
-    <mergeCell ref="B666:F666"/>
-    <mergeCell ref="B715:F715"/>
-    <mergeCell ref="B716:F716"/>
-    <mergeCell ref="B717:F717"/>
-    <mergeCell ref="B775:F775"/>
-    <mergeCell ref="B332:F332"/>
-    <mergeCell ref="A233:F233"/>
-    <mergeCell ref="B279:F279"/>
-    <mergeCell ref="A169:F169"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="B333:F333"/>
-    <mergeCell ref="B334:F334"/>
-    <mergeCell ref="B196:F196"/>
-    <mergeCell ref="B197:F197"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="B204:F204"/>
-    <mergeCell ref="B171:F171"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="B278:F278"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B801:F801"/>
-    <mergeCell ref="B750:F750"/>
-    <mergeCell ref="B751:F751"/>
-    <mergeCell ref="A482:F482"/>
-    <mergeCell ref="B428:F428"/>
-    <mergeCell ref="B562:F562"/>
-    <mergeCell ref="B563:F563"/>
-    <mergeCell ref="B511:F511"/>
-    <mergeCell ref="B512:F512"/>
-    <mergeCell ref="B513:F513"/>
-    <mergeCell ref="B261:F261"/>
-    <mergeCell ref="B262:F262"/>
-    <mergeCell ref="B263:F263"/>
-    <mergeCell ref="B457:F457"/>
-    <mergeCell ref="B458:F458"/>
-    <mergeCell ref="B459:F459"/>
-    <mergeCell ref="B777:F777"/>
-    <mergeCell ref="A714:F714"/>
-    <mergeCell ref="G587:L587"/>
-    <mergeCell ref="B802:F802"/>
-    <mergeCell ref="B803:F803"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B429:F429"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="B749:F749"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22285,37 +22291,37 @@
       <c r="A3" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="122" t="s">
         <v>679</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="123" t="s">
         <v>683</v>
       </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
       <c r="G5" s="141" t="s">
         <v>700</v>
       </c>
@@ -22396,37 +22402,37 @@
       <c r="A12" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="122" t="s">
         <v>708</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="123" t="s">
         <v>707</v>
       </c>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
       <c r="G14" s="141" t="s">
         <v>700</v>
       </c>
@@ -22491,37 +22497,37 @@
       <c r="A20" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="123" t="s">
+      <c r="B20" s="122" t="s">
         <v>716</v>
       </c>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="121" t="s">
+      <c r="B22" s="123" t="s">
         <v>712</v>
       </c>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -22727,37 +22733,37 @@
       <c r="A37" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="123" t="s">
+      <c r="B37" s="122" t="s">
         <v>763</v>
       </c>
-      <c r="C37" s="123"/>
-      <c r="D37" s="123"/>
-      <c r="E37" s="123"/>
-      <c r="F37" s="123"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="122"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="123" t="s">
+      <c r="B38" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="123"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="123"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="122"/>
+      <c r="E38" s="122"/>
+      <c r="F38" s="122"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="121" t="s">
+      <c r="B39" s="123" t="s">
         <v>712</v>
       </c>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="121"/>
+      <c r="C39" s="123"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="123"/>
+      <c r="F39" s="123"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
@@ -22851,37 +22857,37 @@
       <c r="A48" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="123" t="s">
+      <c r="B48" s="122" t="s">
         <v>688</v>
       </c>
-      <c r="C48" s="123"/>
-      <c r="D48" s="123"/>
-      <c r="E48" s="123"/>
-      <c r="F48" s="123"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="122"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="122"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="123" t="s">
+      <c r="B49" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="123"/>
-      <c r="D49" s="123"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="123"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="122"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="122"/>
     </row>
     <row r="50" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="121" t="s">
+      <c r="B50" s="123" t="s">
         <v>702</v>
       </c>
-      <c r="C50" s="121"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="121"/>
-      <c r="F50" s="121"/>
+      <c r="C50" s="123"/>
+      <c r="D50" s="123"/>
+      <c r="E50" s="123"/>
+      <c r="F50" s="123"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
@@ -23224,35 +23230,35 @@
       <c r="A73" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="123" t="s">
+      <c r="B73" s="122" t="s">
         <v>704</v>
       </c>
-      <c r="C73" s="123"/>
-      <c r="D73" s="123"/>
-      <c r="E73" s="123"/>
-      <c r="F73" s="123"/>
+      <c r="C73" s="122"/>
+      <c r="D73" s="122"/>
+      <c r="E73" s="122"/>
+      <c r="F73" s="122"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B74" s="123" t="s">
+      <c r="B74" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="123"/>
-      <c r="D74" s="123"/>
-      <c r="E74" s="123"/>
-      <c r="F74" s="123"/>
+      <c r="C74" s="122"/>
+      <c r="D74" s="122"/>
+      <c r="E74" s="122"/>
+      <c r="F74" s="122"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B75" s="121"/>
-      <c r="C75" s="121"/>
-      <c r="D75" s="121"/>
-      <c r="E75" s="121"/>
-      <c r="F75" s="121"/>
+      <c r="B75" s="123"/>
+      <c r="C75" s="123"/>
+      <c r="D75" s="123"/>
+      <c r="E75" s="123"/>
+      <c r="F75" s="123"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
@@ -23508,6 +23514,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G59:M61"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
     <mergeCell ref="B73:F73"/>
     <mergeCell ref="B74:F74"/>
     <mergeCell ref="B75:F75"/>
@@ -23520,15 +23535,6 @@
     <mergeCell ref="B37:F37"/>
     <mergeCell ref="B38:F38"/>
     <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G59:M61"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -23570,25 +23576,25 @@
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="123" t="s">
         <v>315</v>
       </c>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -23683,25 +23689,25 @@
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
     </row>
     <row r="13" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -23981,25 +23987,25 @@
       <c r="A33" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="123" t="s">
+      <c r="B33" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="123"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="121" t="s">
+      <c r="B34" s="123" t="s">
         <v>608</v>
       </c>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -24069,37 +24075,37 @@
       <c r="A40" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="132" t="s">
+      <c r="B40" s="130" t="s">
         <v>294</v>
       </c>
-      <c r="C40" s="132"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="132"/>
-      <c r="F40" s="132"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="130"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="123" t="s">
+      <c r="B41" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="123"/>
-      <c r="D41" s="123"/>
-      <c r="E41" s="123"/>
-      <c r="F41" s="123"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="122"/>
+      <c r="F41" s="122"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="121" t="s">
+      <c r="B42" s="123" t="s">
         <v>295</v>
       </c>
-      <c r="C42" s="121"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="121"/>
-      <c r="F42" s="121"/>
+      <c r="C42" s="123"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="123"/>
+      <c r="F42" s="123"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
@@ -24297,25 +24303,25 @@
       <c r="A58" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="123" t="s">
+      <c r="B58" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="123"/>
-      <c r="D58" s="123"/>
-      <c r="E58" s="123"/>
-      <c r="F58" s="123"/>
+      <c r="C58" s="122"/>
+      <c r="D58" s="122"/>
+      <c r="E58" s="122"/>
+      <c r="F58" s="122"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="121" t="s">
+      <c r="B59" s="123" t="s">
         <v>634</v>
       </c>
-      <c r="C59" s="121"/>
-      <c r="D59" s="121"/>
-      <c r="E59" s="121"/>
-      <c r="F59" s="121"/>
+      <c r="C59" s="123"/>
+      <c r="D59" s="123"/>
+      <c r="E59" s="123"/>
+      <c r="F59" s="123"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
@@ -24498,13 +24504,13 @@
       <c r="A73" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="123" t="s">
+      <c r="B73" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="123"/>
-      <c r="D73" s="123"/>
-      <c r="E73" s="123"/>
-      <c r="F73" s="123"/>
+      <c r="C73" s="122"/>
+      <c r="D73" s="122"/>
+      <c r="E73" s="122"/>
+      <c r="F73" s="122"/>
       <c r="G73" s="92" t="s">
         <v>642</v>
       </c>
@@ -24513,13 +24519,13 @@
       <c r="A74" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="121" t="s">
+      <c r="B74" s="123" t="s">
         <v>640</v>
       </c>
-      <c r="C74" s="121"/>
-      <c r="D74" s="121"/>
-      <c r="E74" s="121"/>
-      <c r="F74" s="121"/>
+      <c r="C74" s="123"/>
+      <c r="D74" s="123"/>
+      <c r="E74" s="123"/>
+      <c r="F74" s="123"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
@@ -24577,6 +24583,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G11:O11"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:F73"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
@@ -24589,13 +24602,6 @@
     <mergeCell ref="B32:F32"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G11:O11"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:F73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24604,10 +24610,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -24625,37 +24631,37 @@
       <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="122" t="s">
         <v>593</v>
       </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="123" t="s">
         <v>594</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -24731,37 +24737,37 @@
       <c r="A10" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="122" t="s">
         <v>468</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="121" t="s">
+      <c r="B12" s="123" t="s">
         <v>458</v>
       </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
     </row>
     <row r="13" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -24871,37 +24877,37 @@
       <c r="A20" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="123" t="s">
+      <c r="B20" s="122" t="s">
         <v>598</v>
       </c>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="121" t="s">
+      <c r="B22" s="123" t="s">
         <v>458</v>
       </c>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -24979,37 +24985,37 @@
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="123" t="s">
+      <c r="B28" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="121" t="s">
+      <c r="B30" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -25163,37 +25169,37 @@
       <c r="A41" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="123" t="s">
+      <c r="B41" s="122" t="s">
         <v>305</v>
       </c>
-      <c r="C41" s="123"/>
-      <c r="D41" s="123"/>
-      <c r="E41" s="123"/>
-      <c r="F41" s="123"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="122"/>
+      <c r="F41" s="122"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="123" t="s">
+      <c r="B42" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="123"/>
-      <c r="D42" s="123"/>
-      <c r="E42" s="123"/>
-      <c r="F42" s="123"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="122"/>
+      <c r="F42" s="122"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="121" t="s">
+      <c r="B43" s="123" t="s">
         <v>306</v>
       </c>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="121"/>
-      <c r="F43" s="121"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="123"/>
+      <c r="E43" s="123"/>
+      <c r="F43" s="123"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -25367,37 +25373,37 @@
       <c r="A56" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="123" t="s">
+      <c r="B56" s="122" t="s">
         <v>599</v>
       </c>
-      <c r="C56" s="123"/>
-      <c r="D56" s="123"/>
-      <c r="E56" s="123"/>
-      <c r="F56" s="123"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="122"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="122"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="123" t="s">
+      <c r="B57" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="123"/>
-      <c r="D57" s="123"/>
-      <c r="E57" s="123"/>
-      <c r="F57" s="123"/>
+      <c r="C57" s="122"/>
+      <c r="D57" s="122"/>
+      <c r="E57" s="122"/>
+      <c r="F57" s="122"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="121" t="s">
+      <c r="B58" s="123" t="s">
         <v>458</v>
       </c>
-      <c r="C58" s="121"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="121"/>
-      <c r="F58" s="121"/>
+      <c r="C58" s="123"/>
+      <c r="D58" s="123"/>
+      <c r="E58" s="123"/>
+      <c r="F58" s="123"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
@@ -25743,9 +25749,9 @@
       <c r="E81" s="7"/>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>14</v>
+        <v>794</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>22</v>
@@ -25754,93 +25760,97 @@
         <v>17</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>23</v>
+        <v>795</v>
       </c>
       <c r="E82" s="7"/>
-      <c r="F82" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="6"/>
+      <c r="D83" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E83" s="7"/>
-      <c r="F83" s="6"/>
+      <c r="F83" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="D84" s="6"/>
       <c r="E84" s="7"/>
       <c r="F84" s="6"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="6"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="6"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" s="146" t="s">
-        <v>252</v>
-      </c>
-      <c r="C89" s="146"/>
-      <c r="D89" s="146"/>
-      <c r="E89" s="146"/>
-      <c r="F89" s="146"/>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" s="7"/>
+      <c r="F87" s="6"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B90" s="146" t="s">
-        <v>3</v>
+        <v>252</v>
       </c>
       <c r="C90" s="146"/>
       <c r="D90" s="146"/>
@@ -25849,57 +25859,51 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="146"/>
+      <c r="D91" s="146"/>
+      <c r="E91" s="146"/>
+      <c r="F91" s="146"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B91" s="145" t="s">
+      <c r="B92" s="145" t="s">
         <v>196</v>
       </c>
-      <c r="C91" s="145"/>
-      <c r="D91" s="145"/>
-      <c r="E91" s="145"/>
-      <c r="F91" s="145"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
+      <c r="C92" s="145"/>
+      <c r="D92" s="145"/>
+      <c r="E92" s="145"/>
+      <c r="F92" s="145"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F93" s="6"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>16</v>
@@ -25908,7 +25912,7 @@
         <v>17</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>178</v>
@@ -25917,78 +25921,96 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E95" s="7"/>
-      <c r="F95" s="8" t="s">
-        <v>26</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F95" s="6"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D96" s="6"/>
+      <c r="D96" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E96" s="7"/>
-      <c r="F96" s="6"/>
+      <c r="F96" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D97" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="D97" s="6"/>
       <c r="E97" s="7"/>
       <c r="F97" s="6"/>
     </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" s="7"/>
+      <c r="F98" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B10:F10"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B29:F29"/>
     <mergeCell ref="B30:F30"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B58:F58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26018,37 +26040,37 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
     </row>
     <row r="5" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="123" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -26186,37 +26208,37 @@
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="123" t="s">
+      <c r="B16" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="123" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="121"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -26386,37 +26408,37 @@
       <c r="A31" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="123" t="s">
+      <c r="B31" s="122" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="123" t="s">
+      <c r="B32" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="123"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="121" t="s">
+      <c r="B33" s="123" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -26600,37 +26622,37 @@
       <c r="A47" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="123" t="s">
+      <c r="B47" s="122" t="s">
         <v>149</v>
       </c>
-      <c r="C47" s="123"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="123"/>
-      <c r="F47" s="123"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="122"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="122"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="123" t="s">
+      <c r="B48" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="123"/>
-      <c r="D48" s="123"/>
-      <c r="E48" s="123"/>
-      <c r="F48" s="123"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="122"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="122"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="121" t="s">
+      <c r="B49" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="C49" s="121"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="121"/>
-      <c r="F49" s="121"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="123"/>
+      <c r="F49" s="123"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
@@ -26770,18 +26792,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
